--- a/gfconf/conf/item.xlsx
+++ b/gfconf/conf/item.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myproject\gamefun\gfconf\conf\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3D322F18-58FF-4C81-9B28-19FA75A85A3A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新表" sheetId="1" r:id="rId1"/>
@@ -14,19 +20,19 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>ItemId</t>
         </r>
@@ -51,7 +57,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">1~19999
 </t>
@@ -61,7 +67,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>Id</t>
         </r>
@@ -78,7 +84,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
    </t>
@@ -95,7 +101,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">1~400
   </t>
@@ -112,7 +118,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">451~1000
 </t>
@@ -130,7 +136,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">   </t>
         </r>
@@ -146,7 +152,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">1001~1500
    </t>
@@ -163,7 +169,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">1501~2000
 </t>
@@ -181,7 +187,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">   </t>
         </r>
@@ -197,7 +203,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">2001~3000
 </t>
@@ -214,7 +220,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">3001~4000
 </t>
@@ -232,7 +238,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -248,7 +254,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>4001~5000</t>
         </r>
@@ -265,7 +271,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">    </t>
         </r>
@@ -281,7 +287,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">5001~6000
 </t>
@@ -299,7 +305,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -315,7 +321,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>100000</t>
         </r>
@@ -332,7 +338,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -344,7 +350,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>编号</t>
   </si>
@@ -458,19 +464,21 @@
   </si>
   <si>
     <t>永久卡</t>
+  </si>
+  <si>
+    <t>100009</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100010</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -498,151 +506,35 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <b/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -651,198 +543,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -878,251 +584,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1145,61 +609,17 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1486,33 +906,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.625" customWidth="1"/>
-    <col min="2" max="2" width="19.125" customWidth="1"/>
-    <col min="3" max="3" width="8.875" customWidth="1"/>
-    <col min="4" max="4" width="5.625" customWidth="1"/>
-    <col min="6" max="6" width="12.875" customWidth="1"/>
-    <col min="18" max="18" width="8.875" customWidth="1"/>
-    <col min="19" max="19" width="9.375" customWidth="1"/>
-    <col min="23" max="23" width="11.625" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+    <col min="18" max="18" width="8.88671875" customWidth="1"/>
+    <col min="19" max="19" width="9.33203125" customWidth="1"/>
+    <col min="23" max="23" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:5">
+    <row r="1" spans="1:5" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1529,7 +948,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:5">
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1546,7 +965,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
@@ -1559,7 +978,7 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" ht="14.25" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
@@ -1572,7 +991,7 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" ht="14.25" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
@@ -1585,7 +1004,7 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" ht="14.25" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
@@ -1598,7 +1017,7 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" ht="14.25" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>22</v>
       </c>
@@ -1611,7 +1030,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" ht="14.25" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>25</v>
       </c>
@@ -1624,7 +1043,7 @@
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" ht="14.25" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>100006</v>
       </c>
@@ -1637,7 +1056,7 @@
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" ht="14.25" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>100007</v>
       </c>
@@ -1650,7 +1069,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" ht="14.25" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>100008</v>
       </c>
@@ -1663,9 +1082,9 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A12" s="5">
-        <v>100008</v>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>34</v>
@@ -1676,9 +1095,9 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A13" s="5">
-        <v>100008</v>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>36</v>
@@ -1690,9 +1109,9 @@
       <c r="E13" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/gfconf/conf/item.xlsx
+++ b/gfconf/conf/item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myproject\gamefun\gfconf\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3D322F18-58FF-4C81-9B28-19FA75A85A3A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{846F93AB-508E-4879-8922-9DBDF1281DD5}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,6 +23,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
+    <author>Cinky</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
@@ -342,6 +343,20 @@
           </rPr>
           <t xml:space="preserve">
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="1" shapeId="0" xr:uid="{2470CA41-7DBD-42C8-8973-3044E0F8C3DE}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>默认是1表明使用累加方式计算值</t>
         </r>
       </text>
     </comment>
@@ -350,7 +365,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="298">
   <si>
     <t>编号</t>
   </si>
@@ -361,9 +376,6 @@
     <t>物品名称</t>
   </si>
   <si>
-    <t>等级</t>
-  </si>
-  <si>
     <t>素材编号</t>
   </si>
   <si>
@@ -376,101 +388,1156 @@
     <t>name</t>
   </si>
   <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>avatarID</t>
+    <t>systemDonateGold</t>
+  </si>
+  <si>
+    <t>赠送的金币</t>
+  </si>
+  <si>
+    <t>buyGold</t>
+  </si>
+  <si>
+    <t>购买的金币</t>
+  </si>
+  <si>
+    <t>赠送的宝石</t>
+  </si>
+  <si>
+    <t>100003</t>
+  </si>
+  <si>
+    <t>购买的宝石</t>
+  </si>
+  <si>
+    <t>100004</t>
+  </si>
+  <si>
+    <t>100005</t>
+  </si>
+  <si>
+    <t>mainBase</t>
+  </si>
+  <si>
+    <t>主基地</t>
+  </si>
+  <si>
+    <t>monthCard</t>
+  </si>
+  <si>
+    <t>月卡</t>
+  </si>
+  <si>
+    <t>seasonCard</t>
+  </si>
+  <si>
+    <t>季卡</t>
+  </si>
+  <si>
+    <t>yearCard</t>
+  </si>
+  <si>
+    <t>年卡</t>
+  </si>
+  <si>
+    <t>permanentCard</t>
+  </si>
+  <si>
+    <t>永久卡</t>
+  </si>
+  <si>
+    <t>defenseTowerLeft</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>defenseTower</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Right</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100006</t>
+  </si>
+  <si>
+    <t>100007</t>
+  </si>
+  <si>
+    <t>100008</t>
+  </si>
+  <si>
+    <t>100009</t>
+  </si>
+  <si>
+    <t>100010</t>
+  </si>
+  <si>
+    <t>100011</t>
+  </si>
+  <si>
+    <t>角色等级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>roleLevel</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>oleExp</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色经验</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>100000</t>
-  </si>
-  <si>
-    <t>systemDonateGold</t>
-  </si>
-  <si>
-    <t>赠送的金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>100001</t>
-  </si>
-  <si>
-    <t>buyGold</t>
-  </si>
-  <si>
-    <t>购买的金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>100002</t>
-  </si>
-  <si>
-    <t>systemDonateDiamond</t>
-  </si>
-  <si>
-    <t>赠送的宝石</t>
-  </si>
-  <si>
-    <t>100003</t>
-  </si>
-  <si>
-    <t>buyDiamond</t>
-  </si>
-  <si>
-    <t>购买的宝石</t>
-  </si>
-  <si>
-    <t>100004</t>
-  </si>
-  <si>
-    <t>exp</t>
-  </si>
-  <si>
-    <t>经验</t>
-  </si>
-  <si>
-    <t>100005</t>
-  </si>
-  <si>
-    <t>mainBase</t>
-  </si>
-  <si>
-    <t>主基地</t>
-  </si>
-  <si>
-    <t>defenseTower</t>
-  </si>
-  <si>
-    <t>防御塔</t>
-  </si>
-  <si>
-    <t>monthCard</t>
-  </si>
-  <si>
-    <t>月卡</t>
-  </si>
-  <si>
-    <t>seasonCard</t>
-  </si>
-  <si>
-    <t>季卡</t>
-  </si>
-  <si>
-    <t>yearCard</t>
-  </si>
-  <si>
-    <t>年卡</t>
-  </si>
-  <si>
-    <t>permanentCard</t>
-  </si>
-  <si>
-    <t>永久卡</t>
-  </si>
-  <si>
-    <t>100009</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>100010</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大值</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>axValue</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>wishTower</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>许愿池</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>联盟中心</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>allianceTower</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>作坊</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>materialWorkshop</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究院</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>researchCenter</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御塔1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御塔2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>野蛮人</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>barbarian</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓箭手</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨人</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>法师</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸弹人</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>天使</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>盔甲兵</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>石头人</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>野蛮人王</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓箭女王</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>骷髅人</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>骷髅首领</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑士</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗之骑士</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜂人</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜂人首领</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>口水龙</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>火龙</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>气球人</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>巫师</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>刚铁巨人</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰雪精灵</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰冻法师</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电法师</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼人</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼人王</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋风小子</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>突击能手</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿蜘蛛</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>红蜘蛛</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽灵王子</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽灵骑手</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽灵炮手</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂暴</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>加血</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷电</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒药</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑雨</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>克隆军队</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙卷风</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰冻</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>火球</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>火烧</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>法师塔</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓箭手塔</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓箭手小屋</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>野蛮人小屋</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>骷髅人小屋</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>造兵工人小屋</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>炮塔</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>电磁塔</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>气球人小屋</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号弹</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸弹</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级炸弹</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹簧</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级弹簧</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>archer</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>giant</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>wizard</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>bomber</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>angel</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>stoneman</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>armorman</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>barbarianKing</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>archerKing</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>skeletons</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>skeletonsKing</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>riderman</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>darkriderman</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>beeman</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>beemanKing</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>babyDragon</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>fireDragon</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ballonman</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>witch</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>steelman</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>iceSpirit</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>iceWizard</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>lightningWizard</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>wolfman</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>wolfmanKing</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>whirlwindman</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>shockworker</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>redspiderman</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenspiderman</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ghostPrince</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ghostRiderman</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ghostGunner</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicRage</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicHeal</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicLightning</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicPoison</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicArrows</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicClone</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicTornado</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicIce</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicFireball</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicFireBurn</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicMissile</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicSignal</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>bomb</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>superBomb</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>superSpring</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>barbarianHouse</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>archerHouse</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>wizardTower</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>archerTower</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>skeletonsHouse</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸弹塔</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>bomberTower</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>workerHouse</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>mortarTower</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>teslaTower</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>balloonHouse</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100012</t>
+  </si>
+  <si>
+    <t>100013</t>
+  </si>
+  <si>
+    <t>100014</t>
+  </si>
+  <si>
+    <t>100015</t>
+  </si>
+  <si>
+    <t>100016</t>
+  </si>
+  <si>
+    <t>100017</t>
+  </si>
+  <si>
+    <t>100018</t>
+  </si>
+  <si>
+    <t>100019</t>
+  </si>
+  <si>
+    <t>200001</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝宝石</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>红宝石</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>金刚石</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>墨玉石</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫宝石</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDiamond</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDiamond</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>purpleDiamond</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>goldDiamond</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>darkGoldDiamond</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>300001</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>300002</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>300003</t>
+  </si>
+  <si>
+    <t>300004</t>
+  </si>
+  <si>
+    <t>300005</t>
+  </si>
+  <si>
+    <t>300006</t>
+  </si>
+  <si>
+    <t>300007</t>
+  </si>
+  <si>
+    <t>300008</t>
+  </si>
+  <si>
+    <t>300009</t>
+  </si>
+  <si>
+    <t>300010</t>
+  </si>
+  <si>
+    <t>300011</t>
+  </si>
+  <si>
+    <t>300012</t>
+  </si>
+  <si>
+    <t>300013</t>
+  </si>
+  <si>
+    <t>300014</t>
+  </si>
+  <si>
+    <t>300015</t>
+  </si>
+  <si>
+    <t>300016</t>
+  </si>
+  <si>
+    <t>300017</t>
+  </si>
+  <si>
+    <t>300018</t>
+  </si>
+  <si>
+    <t>300019</t>
+  </si>
+  <si>
+    <t>300020</t>
+  </si>
+  <si>
+    <t>300021</t>
+  </si>
+  <si>
+    <t>300022</t>
+  </si>
+  <si>
+    <t>300023</t>
+  </si>
+  <si>
+    <t>300024</t>
+  </si>
+  <si>
+    <t>300025</t>
+  </si>
+  <si>
+    <t>300026</t>
+  </si>
+  <si>
+    <t>300027</t>
+  </si>
+  <si>
+    <t>300028</t>
+  </si>
+  <si>
+    <t>300029</t>
+  </si>
+  <si>
+    <t>300030</t>
+  </si>
+  <si>
+    <t>300031</t>
+  </si>
+  <si>
+    <t>300032</t>
+  </si>
+  <si>
+    <t>300033</t>
+  </si>
+  <si>
+    <t>300034</t>
+  </si>
+  <si>
+    <t>300035</t>
+  </si>
+  <si>
+    <t>300036</t>
+  </si>
+  <si>
+    <t>300037</t>
+  </si>
+  <si>
+    <t>300038</t>
+  </si>
+  <si>
+    <t>300039</t>
+  </si>
+  <si>
+    <t>300040</t>
+  </si>
+  <si>
+    <t>300041</t>
+  </si>
+  <si>
+    <t>300042</t>
+  </si>
+  <si>
+    <t>300043</t>
+  </si>
+  <si>
+    <t>300044</t>
+  </si>
+  <si>
+    <t>300045</t>
+  </si>
+  <si>
+    <t>300046</t>
+  </si>
+  <si>
+    <t>300047</t>
+  </si>
+  <si>
+    <t>300048</t>
+  </si>
+  <si>
+    <t>300049</t>
+  </si>
+  <si>
+    <t>300050</t>
+  </si>
+  <si>
+    <t>300051</t>
+  </si>
+  <si>
+    <t>300052</t>
+  </si>
+  <si>
+    <t>300053</t>
+  </si>
+  <si>
+    <t>300054</t>
+  </si>
+  <si>
+    <t>300055</t>
+  </si>
+  <si>
+    <t>300056</t>
+  </si>
+  <si>
+    <t>300057</t>
+  </si>
+  <si>
+    <t>300058</t>
+  </si>
+  <si>
+    <t>300059</t>
+  </si>
+  <si>
+    <r>
+      <t>systemDonate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Gem</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>buy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Gem</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>200002</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>200003</t>
+  </si>
+  <si>
+    <t>200004</t>
+  </si>
+  <si>
+    <t>200005</t>
+  </si>
+  <si>
+    <t>200006</t>
+  </si>
+  <si>
+    <t>200007</t>
+  </si>
+  <si>
+    <t>双倍经验</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>dou</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bleRoleExp</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双倍金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>doubleRoleGold</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速5分钟</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedTimeFiveMin</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速10分钟</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速30分钟</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速1小时</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速2小时</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速6小时</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速12小时</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速24小时</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedTimeTenMin</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedTimeThirtyMin</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedTimeOneHour</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedTimeTwoHour</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedTimeSixHour</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedTimeOneDay</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedTimeTwelveHour</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品箱子</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemBox</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100020</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>avatarI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>累加标记</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>accumulativeFlag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600001</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600002</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600003</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600004</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600005</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>700001</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>音乐开关</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>音效开关</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>语言选项</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>musicSwitchFlag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>audioEffectSwitchFlag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>languageOption</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>700002</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>700003</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -478,7 +1545,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -532,6 +1599,35 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -590,7 +1686,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -608,6 +1704,14 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -912,11 +2016,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -924,14 +2028,14 @@
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="21.6640625" customWidth="1"/>
     <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" customWidth="1"/>
-    <col min="18" max="18" width="8.88671875" customWidth="1"/>
-    <col min="19" max="19" width="9.33203125" customWidth="1"/>
-    <col min="23" max="23" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" customWidth="1"/>
+    <col min="18" max="18" width="9.33203125" customWidth="1"/>
+    <col min="22" max="22" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -944,174 +2048,1373 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>12</v>
+      <c r="D2" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>15</v>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>16</v>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>21</v>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>24</v>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>26</v>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>250</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
-        <v>100006</v>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
-        <v>100007</v>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
-        <v>100008</v>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>38</v>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>37</v>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>257</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" s="5"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" s="5"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" s="5"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D42" s="5"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" s="5"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44" s="5"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" s="5"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46" s="5"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D47" s="5"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D48" s="5"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D49" s="5"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D50" s="5"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D51" s="5"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52" s="5"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D53" s="5"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D54" s="5"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D55" s="5"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D56" s="5"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D57" s="5"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D58" s="5"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D59" s="5"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D60" s="5"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D61" s="5"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D62" s="5"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D63" s="5"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D64" s="5"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D65" s="5"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D66" s="5"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D67" s="5"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D68" s="5"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D69" s="5"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D70" s="5"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D71" s="5"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D72" s="5"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D73" s="5"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D74" s="5"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D75" s="5"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D76" s="5"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D77" s="5"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D78" s="5"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D79" s="5"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D80" s="5"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D81" s="5"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D82" s="5"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D83" s="5"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D84" s="5"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D85" s="5"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D86" s="5"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D87" s="5"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D88" s="5"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D89" s="5"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D90" s="5"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D91" s="5"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D92" s="5"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D93" s="5"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D94" s="5"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="D95" s="5"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="D96" s="5"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="D97" s="5"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7" t="s">
+        <v>295</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/gfconf/conf/item.xlsx
+++ b/gfconf/conf/item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myproject\gamefun\gfconf\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1134AC28-F550-41E1-9666-7D56BF4CA252}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{549E12C5-4DA3-45EF-ADBE-906B4A7DE9A5}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="210">
   <si>
     <t>编号</t>
   </si>
@@ -915,7 +915,35 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>0</t>
+    <t>signTag</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到标记</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>signFinishTag</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到完成标记</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>signGotRewardTag</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到领取标记</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>internalTagRoleLoginDay</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部标记登陆</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1042,7 +1070,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1070,6 +1098,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1375,20 +1415,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F97"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B104" sqref="B104"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="11" customWidth="1"/>
     <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" style="11" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8.88671875" customWidth="1"/>
     <col min="18" max="18" width="9.33203125" customWidth="1"/>
     <col min="22" max="22" width="11.6640625" customWidth="1"/>
@@ -1410,7 +1450,7 @@
       <c r="E1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="12" t="s">
         <v>194</v>
       </c>
     </row>
@@ -1430,7 +1470,7 @@
       <c r="E2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="13" t="s">
         <v>195</v>
       </c>
     </row>
@@ -1446,7 +1486,7 @@
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="F3" s="14"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
@@ -1460,7 +1500,7 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
@@ -1474,7 +1514,7 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
@@ -1488,7 +1528,7 @@
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="F6" s="15"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
@@ -1502,7 +1542,7 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
@@ -1516,7 +1556,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="F8" s="15"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
@@ -1530,7 +1570,7 @@
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="F9" s="15"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
@@ -1544,7 +1584,7 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="F10" s="15"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
@@ -1558,7 +1598,7 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="F11" s="15"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
@@ -1572,7 +1612,7 @@
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="F12" s="15"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
@@ -1586,7 +1626,7 @@
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="F13" s="15"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
@@ -1600,7 +1640,7 @@
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="F14" s="15"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
@@ -1614,7 +1654,7 @@
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="F15" s="15"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
@@ -1628,7 +1668,7 @@
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="F16" s="15"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
@@ -1642,7 +1682,7 @@
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="F17" s="15"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
@@ -1656,7 +1696,7 @@
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="F18" s="15"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
@@ -1670,7 +1710,7 @@
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="F19" s="15"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
@@ -1684,7 +1724,7 @@
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="F20" s="15"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
@@ -1698,7 +1738,7 @@
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="F21" s="15"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
@@ -1712,7 +1752,7 @@
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
+      <c r="F22" s="15"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
@@ -1726,1048 +1766,1104 @@
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
+      <c r="F23" s="15"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
-        <v>200001</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>14</v>
+        <v>100021</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>203</v>
       </c>
       <c r="D24" s="4"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="10"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
-        <v>200002</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>23</v>
+        <v>100022</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>204</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>39</v>
+        <v>205</v>
       </c>
       <c r="D25" s="4"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
-        <v>200003</v>
+        <v>100023</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>24</v>
+        <v>206</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>40</v>
+        <v>207</v>
       </c>
       <c r="D26" s="4"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="10"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
-        <v>200004</v>
+        <v>100024</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>31</v>
+        <v>208</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>32</v>
+        <v>209</v>
       </c>
       <c r="D27" s="4"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="10"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
-        <v>200005</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>33</v>
+        <v>200001</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
+      <c r="F28" s="14"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
-        <v>200006</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>36</v>
+        <v>200002</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
+      <c r="F29" s="14"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="10">
-        <v>200007</v>
+        <v>200003</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
+      <c r="F30" s="14"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
-        <v>300001</v>
+        <v>200004</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
+      <c r="F31" s="14"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
-        <v>300002</v>
+        <v>200005</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
+      <c r="F32" s="14"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
-        <v>300003</v>
+        <v>200006</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
+      <c r="F33" s="14"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="10">
-        <v>300004</v>
+        <v>200007</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
+      <c r="F34" s="14"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="10">
-        <v>300005</v>
+        <v>300001</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
+      <c r="F35" s="14"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="10">
-        <v>300006</v>
+        <v>300002</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
+      <c r="F36" s="14"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="10">
-        <v>300007</v>
+        <v>300003</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
+      <c r="F37" s="14"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="10">
-        <v>300008</v>
+        <v>300004</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
+      <c r="F38" s="14"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="10">
-        <v>300009</v>
+        <v>300005</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
+      <c r="F39" s="14"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="10">
-        <v>300010</v>
+        <v>300006</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
+      <c r="F40" s="14"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="10">
-        <v>300011</v>
+        <v>300007</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
+      <c r="F41" s="14"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="10">
-        <v>300012</v>
+        <v>300008</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
+      <c r="F42" s="14"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="10">
-        <v>300013</v>
+        <v>300009</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
+      <c r="F43" s="14"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="10">
-        <v>300014</v>
+        <v>300010</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
+      <c r="F44" s="14"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="10">
-        <v>300015</v>
+        <v>300011</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
+      <c r="F45" s="14"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="10">
-        <v>300016</v>
+        <v>300012</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
+      <c r="F46" s="14"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="10">
-        <v>300017</v>
+        <v>300013</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
+      <c r="F47" s="14"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="10">
-        <v>300018</v>
+        <v>300014</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
+      <c r="F48" s="14"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="10">
-        <v>300019</v>
+        <v>300015</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
+      <c r="F49" s="14"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="10">
-        <v>300020</v>
+        <v>300016</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
+      <c r="F50" s="14"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="10">
-        <v>300021</v>
+        <v>300017</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
+      <c r="F51" s="14"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="10">
-        <v>300022</v>
+        <v>300018</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
+      <c r="F52" s="14"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="10">
-        <v>300023</v>
+        <v>300019</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
+      <c r="F53" s="14"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="10">
-        <v>300024</v>
+        <v>300020</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
+      <c r="F54" s="14"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="10">
-        <v>300025</v>
+        <v>300021</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
+      <c r="F55" s="14"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="10">
-        <v>300026</v>
+        <v>300022</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
+      <c r="F56" s="14"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="10">
-        <v>300027</v>
+        <v>300023</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
+      <c r="F57" s="14"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="10">
-        <v>300028</v>
+        <v>300024</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
+      <c r="F58" s="14"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="10">
-        <v>300029</v>
+        <v>300025</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
+      <c r="F59" s="14"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="10">
-        <v>300030</v>
+        <v>300026</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
+      <c r="F60" s="14"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="10">
-        <v>300031</v>
+        <v>300027</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
+      <c r="F61" s="14"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="10">
-        <v>300032</v>
+        <v>300028</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
+      <c r="F62" s="14"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="10">
-        <v>300033</v>
+        <v>300029</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
+      <c r="F63" s="14"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="10">
-        <v>300034</v>
+        <v>300030</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
+      <c r="F64" s="14"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="10">
-        <v>300035</v>
+        <v>300031</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
+      <c r="F65" s="14"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="10">
-        <v>300036</v>
+        <v>300032</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
+      <c r="F66" s="14"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="10">
-        <v>300037</v>
+        <v>300033</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
+      <c r="F67" s="14"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="10">
-        <v>300038</v>
+        <v>300034</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
+      <c r="F68" s="14"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="10">
-        <v>300039</v>
+        <v>300035</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
+      <c r="F69" s="14"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="10">
-        <v>300040</v>
+        <v>300036</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
+      <c r="F70" s="14"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="10">
-        <v>300041</v>
+        <v>300037</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
+      <c r="F71" s="14"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="10">
-        <v>300042</v>
+        <v>300038</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
+      <c r="F72" s="14"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="10">
-        <v>300043</v>
+        <v>300039</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
+      <c r="F73" s="14"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="10">
-        <v>300044</v>
+        <v>300040</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
+      <c r="F74" s="14"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="10">
-        <v>300045</v>
+        <v>300041</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
+      <c r="F75" s="14"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="10">
-        <v>300046</v>
+        <v>300042</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D76" s="4"/>
       <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
+      <c r="F76" s="14"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="10">
-        <v>300047</v>
+        <v>300043</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
+      <c r="F77" s="14"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="10">
-        <v>300048</v>
+        <v>300044</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
+      <c r="F78" s="14"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="10">
-        <v>300049</v>
+        <v>300045</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
+      <c r="F79" s="14"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="10">
-        <v>300050</v>
+        <v>300046</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
+      <c r="F80" s="14"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="10">
-        <v>300051</v>
+        <v>300047</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
+      <c r="F81" s="14"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="10">
-        <v>300052</v>
+        <v>300048</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>153</v>
+        <v>98</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
+      <c r="F82" s="14"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="10">
-        <v>300053</v>
+        <v>300049</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
+      <c r="F83" s="14"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="10">
-        <v>300054</v>
+        <v>300050</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
+      <c r="F84" s="14"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="10">
-        <v>300055</v>
+        <v>300051</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
+      <c r="F85" s="14"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="10">
-        <v>300056</v>
+        <v>300052</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
+      <c r="F86" s="14"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="10">
-        <v>300057</v>
+        <v>300053</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
+      <c r="F87" s="14"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="10">
-        <v>300058</v>
+        <v>300054</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
+      <c r="F88" s="14"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="10">
-        <v>300059</v>
+        <v>300055</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
+      <c r="F89" s="14"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="10">
-        <v>600001</v>
+        <v>300056</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>159</v>
+        <v>91</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
+      <c r="F90" s="14"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="10">
-        <v>600002</v>
+        <v>300057</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>160</v>
+        <v>92</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
+      <c r="F91" s="14"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="10">
-        <v>600003</v>
+        <v>300058</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>163</v>
+        <v>93</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
+      <c r="F92" s="14"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="10">
-        <v>600004</v>
+        <v>300059</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>161</v>
+        <v>94</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
+      <c r="F93" s="14"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="10">
-        <v>600005</v>
+        <v>600001</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
+      <c r="F94" s="14"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="10">
-        <v>700001</v>
+        <v>600002</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>199</v>
+        <v>165</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>196</v>
+        <v>160</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="6"/>
-      <c r="F95" s="6" t="s">
-        <v>202</v>
-      </c>
+      <c r="F95" s="14"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="10">
-        <v>700002</v>
+        <v>600003</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>200</v>
+        <v>166</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="6"/>
-      <c r="F96" s="6" t="s">
-        <v>202</v>
-      </c>
+      <c r="F96" s="14"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="10">
-        <v>700003</v>
+        <v>600004</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>201</v>
+        <v>167</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="6"/>
-      <c r="F97" s="6" t="s">
-        <v>202</v>
+      <c r="F97" s="14"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="10">
+        <v>600005</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D98" s="4"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="14"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="10">
+        <v>700001</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D99" s="4"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="10">
+        <v>700002</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D100" s="4"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="10">
+        <v>700003</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D101" s="4"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="10">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/gfconf/conf/item.xlsx
+++ b/gfconf/conf/item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myproject\gamefun\gfconf\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{549E12C5-4DA3-45EF-ADBE-906B4A7DE9A5}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7D5D0876-DBBA-4CF6-BD58-5BBB122D0BD7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="212">
   <si>
     <t>编号</t>
   </si>
@@ -944,6 +944,14 @@
   </si>
   <si>
     <t>内部标记登陆</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品种类</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1415,11 +1423,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1429,12 +1437,13 @@
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8.88671875" customWidth="1"/>
     <col min="18" max="18" width="9.33203125" customWidth="1"/>
     <col min="22" max="22" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1453,8 +1462,11 @@
       <c r="F1" s="12" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="G1" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1473,8 +1485,11 @@
       <c r="F2" s="13" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>100000</v>
       </c>
@@ -1487,8 +1502,9 @@
       <c r="D3" s="4"/>
       <c r="E3" s="6"/>
       <c r="F3" s="14"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>100001</v>
       </c>
@@ -1501,8 +1517,9 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="15"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>100002</v>
       </c>
@@ -1515,8 +1532,9 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="15"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>100003</v>
       </c>
@@ -1529,8 +1547,9 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="15"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>100004</v>
       </c>
@@ -1543,8 +1562,9 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="15"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>100005</v>
       </c>
@@ -1557,8 +1577,9 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="15"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>100006</v>
       </c>
@@ -1571,8 +1592,9 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="15"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>100007</v>
       </c>
@@ -1585,8 +1607,9 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="15"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>100008</v>
       </c>
@@ -1599,8 +1622,9 @@
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="15"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>100009</v>
       </c>
@@ -1613,8 +1637,9 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="15"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>100010</v>
       </c>
@@ -1627,8 +1652,9 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="15"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>100011</v>
       </c>
@@ -1641,8 +1667,9 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="15"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>100012</v>
       </c>
@@ -1655,8 +1682,9 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="15"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>100013</v>
       </c>
@@ -1669,8 +1697,9 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="15"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>100014</v>
       </c>
@@ -1683,8 +1712,9 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="15"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>100015</v>
       </c>
@@ -1697,8 +1727,9 @@
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="15"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>100016</v>
       </c>
@@ -1711,8 +1742,9 @@
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="15"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>100017</v>
       </c>
@@ -1725,8 +1757,9 @@
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="15"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>100018</v>
       </c>
@@ -1739,8 +1772,9 @@
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="15"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>100019</v>
       </c>
@@ -1753,8 +1787,9 @@
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="15"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>100020</v>
       </c>
@@ -1767,8 +1802,9 @@
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="15"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>100021</v>
       </c>
@@ -1781,8 +1817,9 @@
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="10"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>100022</v>
       </c>
@@ -1795,8 +1832,9 @@
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="10"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>100023</v>
       </c>
@@ -1809,8 +1847,9 @@
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="10"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>100024</v>
       </c>
@@ -1823,8 +1862,9 @@
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="10"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
         <v>200001</v>
       </c>
@@ -1837,8 +1877,9 @@
       <c r="D28" s="4"/>
       <c r="E28" s="6"/>
       <c r="F28" s="14"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
         <v>200002</v>
       </c>
@@ -1851,8 +1892,9 @@
       <c r="D29" s="4"/>
       <c r="E29" s="6"/>
       <c r="F29" s="14"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="10">
         <v>200003</v>
       </c>
@@ -1865,8 +1907,9 @@
       <c r="D30" s="4"/>
       <c r="E30" s="6"/>
       <c r="F30" s="14"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
         <v>200004</v>
       </c>
@@ -1879,8 +1922,9 @@
       <c r="D31" s="4"/>
       <c r="E31" s="6"/>
       <c r="F31" s="14"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
         <v>200005</v>
       </c>
@@ -1893,8 +1937,9 @@
       <c r="D32" s="4"/>
       <c r="E32" s="6"/>
       <c r="F32" s="14"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
         <v>200006</v>
       </c>
@@ -1907,8 +1952,9 @@
       <c r="D33" s="4"/>
       <c r="E33" s="6"/>
       <c r="F33" s="14"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="10">
         <v>200007</v>
       </c>
@@ -1921,8 +1967,9 @@
       <c r="D34" s="4"/>
       <c r="E34" s="6"/>
       <c r="F34" s="14"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="10">
         <v>300001</v>
       </c>
@@ -1935,8 +1982,9 @@
       <c r="D35" s="4"/>
       <c r="E35" s="6"/>
       <c r="F35" s="14"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="10">
         <v>300002</v>
       </c>
@@ -1949,8 +1997,9 @@
       <c r="D36" s="4"/>
       <c r="E36" s="6"/>
       <c r="F36" s="14"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36" s="6"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="10">
         <v>300003</v>
       </c>
@@ -1963,8 +2012,9 @@
       <c r="D37" s="4"/>
       <c r="E37" s="6"/>
       <c r="F37" s="14"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="10">
         <v>300004</v>
       </c>
@@ -1977,8 +2027,9 @@
       <c r="D38" s="4"/>
       <c r="E38" s="6"/>
       <c r="F38" s="14"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38" s="6"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="10">
         <v>300005</v>
       </c>
@@ -1991,8 +2042,9 @@
       <c r="D39" s="4"/>
       <c r="E39" s="6"/>
       <c r="F39" s="14"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39" s="6"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="10">
         <v>300006</v>
       </c>
@@ -2005,8 +2057,9 @@
       <c r="D40" s="4"/>
       <c r="E40" s="6"/>
       <c r="F40" s="14"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40" s="6"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="10">
         <v>300007</v>
       </c>
@@ -2019,8 +2072,9 @@
       <c r="D41" s="4"/>
       <c r="E41" s="6"/>
       <c r="F41" s="14"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41" s="6"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="10">
         <v>300008</v>
       </c>
@@ -2033,8 +2087,9 @@
       <c r="D42" s="4"/>
       <c r="E42" s="6"/>
       <c r="F42" s="14"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42" s="6"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="10">
         <v>300009</v>
       </c>
@@ -2047,8 +2102,9 @@
       <c r="D43" s="4"/>
       <c r="E43" s="6"/>
       <c r="F43" s="14"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43" s="6"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="10">
         <v>300010</v>
       </c>
@@ -2061,8 +2117,9 @@
       <c r="D44" s="4"/>
       <c r="E44" s="6"/>
       <c r="F44" s="14"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G44" s="6"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="10">
         <v>300011</v>
       </c>
@@ -2075,8 +2132,9 @@
       <c r="D45" s="4"/>
       <c r="E45" s="6"/>
       <c r="F45" s="14"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G45" s="6"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="10">
         <v>300012</v>
       </c>
@@ -2089,8 +2147,9 @@
       <c r="D46" s="4"/>
       <c r="E46" s="6"/>
       <c r="F46" s="14"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46" s="6"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="10">
         <v>300013</v>
       </c>
@@ -2103,8 +2162,9 @@
       <c r="D47" s="4"/>
       <c r="E47" s="6"/>
       <c r="F47" s="14"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G47" s="6"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="10">
         <v>300014</v>
       </c>
@@ -2117,8 +2177,9 @@
       <c r="D48" s="4"/>
       <c r="E48" s="6"/>
       <c r="F48" s="14"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G48" s="6"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="10">
         <v>300015</v>
       </c>
@@ -2131,8 +2192,9 @@
       <c r="D49" s="4"/>
       <c r="E49" s="6"/>
       <c r="F49" s="14"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G49" s="6"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="10">
         <v>300016</v>
       </c>
@@ -2145,8 +2207,9 @@
       <c r="D50" s="4"/>
       <c r="E50" s="6"/>
       <c r="F50" s="14"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G50" s="6"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="10">
         <v>300017</v>
       </c>
@@ -2159,8 +2222,9 @@
       <c r="D51" s="4"/>
       <c r="E51" s="6"/>
       <c r="F51" s="14"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G51" s="6"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="10">
         <v>300018</v>
       </c>
@@ -2173,8 +2237,9 @@
       <c r="D52" s="4"/>
       <c r="E52" s="6"/>
       <c r="F52" s="14"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G52" s="6"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="10">
         <v>300019</v>
       </c>
@@ -2187,8 +2252,9 @@
       <c r="D53" s="4"/>
       <c r="E53" s="6"/>
       <c r="F53" s="14"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G53" s="6"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="10">
         <v>300020</v>
       </c>
@@ -2201,8 +2267,9 @@
       <c r="D54" s="4"/>
       <c r="E54" s="6"/>
       <c r="F54" s="14"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G54" s="6"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="10">
         <v>300021</v>
       </c>
@@ -2215,8 +2282,9 @@
       <c r="D55" s="4"/>
       <c r="E55" s="6"/>
       <c r="F55" s="14"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G55" s="6"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="10">
         <v>300022</v>
       </c>
@@ -2229,8 +2297,9 @@
       <c r="D56" s="4"/>
       <c r="E56" s="6"/>
       <c r="F56" s="14"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G56" s="6"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="10">
         <v>300023</v>
       </c>
@@ -2243,8 +2312,9 @@
       <c r="D57" s="4"/>
       <c r="E57" s="6"/>
       <c r="F57" s="14"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G57" s="6"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="10">
         <v>300024</v>
       </c>
@@ -2257,8 +2327,9 @@
       <c r="D58" s="4"/>
       <c r="E58" s="6"/>
       <c r="F58" s="14"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G58" s="6"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="10">
         <v>300025</v>
       </c>
@@ -2271,8 +2342,9 @@
       <c r="D59" s="4"/>
       <c r="E59" s="6"/>
       <c r="F59" s="14"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G59" s="6"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="10">
         <v>300026</v>
       </c>
@@ -2285,8 +2357,9 @@
       <c r="D60" s="4"/>
       <c r="E60" s="6"/>
       <c r="F60" s="14"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G60" s="6"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="10">
         <v>300027</v>
       </c>
@@ -2299,8 +2372,9 @@
       <c r="D61" s="4"/>
       <c r="E61" s="6"/>
       <c r="F61" s="14"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G61" s="6"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="10">
         <v>300028</v>
       </c>
@@ -2313,8 +2387,9 @@
       <c r="D62" s="4"/>
       <c r="E62" s="6"/>
       <c r="F62" s="14"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G62" s="6"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="10">
         <v>300029</v>
       </c>
@@ -2327,8 +2402,9 @@
       <c r="D63" s="4"/>
       <c r="E63" s="6"/>
       <c r="F63" s="14"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G63" s="6"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="10">
         <v>300030</v>
       </c>
@@ -2341,8 +2417,9 @@
       <c r="D64" s="4"/>
       <c r="E64" s="6"/>
       <c r="F64" s="14"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G64" s="6"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="10">
         <v>300031</v>
       </c>
@@ -2355,8 +2432,9 @@
       <c r="D65" s="4"/>
       <c r="E65" s="6"/>
       <c r="F65" s="14"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G65" s="6"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="10">
         <v>300032</v>
       </c>
@@ -2369,8 +2447,9 @@
       <c r="D66" s="4"/>
       <c r="E66" s="6"/>
       <c r="F66" s="14"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G66" s="6"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="10">
         <v>300033</v>
       </c>
@@ -2383,8 +2462,9 @@
       <c r="D67" s="4"/>
       <c r="E67" s="6"/>
       <c r="F67" s="14"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G67" s="6"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="10">
         <v>300034</v>
       </c>
@@ -2397,8 +2477,9 @@
       <c r="D68" s="4"/>
       <c r="E68" s="6"/>
       <c r="F68" s="14"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G68" s="6"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="10">
         <v>300035</v>
       </c>
@@ -2411,8 +2492,9 @@
       <c r="D69" s="4"/>
       <c r="E69" s="6"/>
       <c r="F69" s="14"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G69" s="6"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="10">
         <v>300036</v>
       </c>
@@ -2425,8 +2507,9 @@
       <c r="D70" s="4"/>
       <c r="E70" s="6"/>
       <c r="F70" s="14"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G70" s="6"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="10">
         <v>300037</v>
       </c>
@@ -2439,8 +2522,9 @@
       <c r="D71" s="4"/>
       <c r="E71" s="6"/>
       <c r="F71" s="14"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G71" s="6"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="10">
         <v>300038</v>
       </c>
@@ -2453,8 +2537,9 @@
       <c r="D72" s="4"/>
       <c r="E72" s="6"/>
       <c r="F72" s="14"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G72" s="6"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="10">
         <v>300039</v>
       </c>
@@ -2467,8 +2552,9 @@
       <c r="D73" s="4"/>
       <c r="E73" s="6"/>
       <c r="F73" s="14"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G73" s="6"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="10">
         <v>300040</v>
       </c>
@@ -2481,8 +2567,9 @@
       <c r="D74" s="4"/>
       <c r="E74" s="6"/>
       <c r="F74" s="14"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G74" s="6"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="10">
         <v>300041</v>
       </c>
@@ -2495,8 +2582,9 @@
       <c r="D75" s="4"/>
       <c r="E75" s="6"/>
       <c r="F75" s="14"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G75" s="6"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="10">
         <v>300042</v>
       </c>
@@ -2509,8 +2597,9 @@
       <c r="D76" s="4"/>
       <c r="E76" s="6"/>
       <c r="F76" s="14"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G76" s="6"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="10">
         <v>300043</v>
       </c>
@@ -2523,8 +2612,9 @@
       <c r="D77" s="4"/>
       <c r="E77" s="6"/>
       <c r="F77" s="14"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G77" s="6"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="10">
         <v>300044</v>
       </c>
@@ -2537,8 +2627,9 @@
       <c r="D78" s="4"/>
       <c r="E78" s="6"/>
       <c r="F78" s="14"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G78" s="6"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="10">
         <v>300045</v>
       </c>
@@ -2551,8 +2642,9 @@
       <c r="D79" s="4"/>
       <c r="E79" s="6"/>
       <c r="F79" s="14"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G79" s="6"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="10">
         <v>300046</v>
       </c>
@@ -2565,8 +2657,9 @@
       <c r="D80" s="4"/>
       <c r="E80" s="6"/>
       <c r="F80" s="14"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G80" s="6"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="10">
         <v>300047</v>
       </c>
@@ -2579,8 +2672,9 @@
       <c r="D81" s="4"/>
       <c r="E81" s="6"/>
       <c r="F81" s="14"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G81" s="6"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="10">
         <v>300048</v>
       </c>
@@ -2593,8 +2687,9 @@
       <c r="D82" s="4"/>
       <c r="E82" s="6"/>
       <c r="F82" s="14"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G82" s="6"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="10">
         <v>300049</v>
       </c>
@@ -2607,8 +2702,9 @@
       <c r="D83" s="4"/>
       <c r="E83" s="6"/>
       <c r="F83" s="14"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G83" s="6"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="10">
         <v>300050</v>
       </c>
@@ -2621,8 +2717,9 @@
       <c r="D84" s="4"/>
       <c r="E84" s="6"/>
       <c r="F84" s="14"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G84" s="6"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="10">
         <v>300051</v>
       </c>
@@ -2635,8 +2732,9 @@
       <c r="D85" s="4"/>
       <c r="E85" s="6"/>
       <c r="F85" s="14"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G85" s="6"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="10">
         <v>300052</v>
       </c>
@@ -2649,8 +2747,9 @@
       <c r="D86" s="4"/>
       <c r="E86" s="6"/>
       <c r="F86" s="14"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G86" s="6"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="10">
         <v>300053</v>
       </c>
@@ -2663,8 +2762,9 @@
       <c r="D87" s="4"/>
       <c r="E87" s="6"/>
       <c r="F87" s="14"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G87" s="6"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="10">
         <v>300054</v>
       </c>
@@ -2677,8 +2777,9 @@
       <c r="D88" s="4"/>
       <c r="E88" s="6"/>
       <c r="F88" s="14"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G88" s="6"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="10">
         <v>300055</v>
       </c>
@@ -2691,8 +2792,9 @@
       <c r="D89" s="4"/>
       <c r="E89" s="6"/>
       <c r="F89" s="14"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G89" s="6"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="10">
         <v>300056</v>
       </c>
@@ -2705,8 +2807,9 @@
       <c r="D90" s="4"/>
       <c r="E90" s="6"/>
       <c r="F90" s="14"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G90" s="6"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="10">
         <v>300057</v>
       </c>
@@ -2719,8 +2822,9 @@
       <c r="D91" s="4"/>
       <c r="E91" s="6"/>
       <c r="F91" s="14"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G91" s="6"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="10">
         <v>300058</v>
       </c>
@@ -2733,8 +2837,9 @@
       <c r="D92" s="4"/>
       <c r="E92" s="6"/>
       <c r="F92" s="14"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G92" s="6"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="10">
         <v>300059</v>
       </c>
@@ -2747,8 +2852,9 @@
       <c r="D93" s="4"/>
       <c r="E93" s="6"/>
       <c r="F93" s="14"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G93" s="6"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="10">
         <v>600001</v>
       </c>
@@ -2761,8 +2867,9 @@
       <c r="D94" s="4"/>
       <c r="E94" s="6"/>
       <c r="F94" s="14"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G94" s="6"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="10">
         <v>600002</v>
       </c>
@@ -2775,8 +2882,9 @@
       <c r="D95" s="4"/>
       <c r="E95" s="6"/>
       <c r="F95" s="14"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G95" s="6"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="10">
         <v>600003</v>
       </c>
@@ -2789,8 +2897,9 @@
       <c r="D96" s="4"/>
       <c r="E96" s="6"/>
       <c r="F96" s="14"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G96" s="6"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="10">
         <v>600004</v>
       </c>
@@ -2803,8 +2912,9 @@
       <c r="D97" s="4"/>
       <c r="E97" s="6"/>
       <c r="F97" s="14"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G97" s="6"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="10">
         <v>600005</v>
       </c>
@@ -2817,8 +2927,9 @@
       <c r="D98" s="4"/>
       <c r="E98" s="6"/>
       <c r="F98" s="14"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G98" s="6"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="10">
         <v>700001</v>
       </c>
@@ -2833,8 +2944,9 @@
       <c r="F99" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G99" s="6"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="10">
         <v>700002</v>
       </c>
@@ -2849,8 +2961,9 @@
       <c r="F100" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G100" s="6"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="10">
         <v>700003</v>
       </c>
@@ -2865,6 +2978,7 @@
       <c r="F101" s="10">
         <v>0</v>
       </c>
+      <c r="G101" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/gfconf/conf/item.xlsx
+++ b/gfconf/conf/item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myproject\gamefun\gfconf\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7D5D0876-DBBA-4CF6-BD58-5BBB122D0BD7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{814B885D-41E6-4B26-BCD9-20969F8F648E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="224">
   <si>
     <t>编号</t>
   </si>
@@ -952,6 +952,54 @@
   </si>
   <si>
     <t>category</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>usedJoinInArmyId</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>上阵军队编号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>joinInArmySeq1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>上阵军队编号1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>joinInArmySeq2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>joinInArmySeq3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>joinInArmySeq4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>joinInArmySeq5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>上阵军队编号2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>上阵军队编号3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>上阵军队编号4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>上阵军队编号5</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1423,11 +1471,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:G107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1866,103 +1914,115 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
-        <v>200001</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>14</v>
+        <v>100025</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="D28" s="4"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="6"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="10">
+        <v>0</v>
+      </c>
+      <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
-        <v>200002</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>23</v>
+        <v>100026</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>214</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>39</v>
+        <v>215</v>
       </c>
       <c r="D29" s="4"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="6"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="10">
+        <v>0</v>
+      </c>
+      <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="10">
-        <v>200003</v>
+        <v>100027</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>24</v>
+        <v>216</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="D30" s="4"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="6"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="10">
+        <v>0</v>
+      </c>
+      <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
-        <v>200004</v>
+        <v>100028</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>31</v>
+        <v>217</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>32</v>
+        <v>221</v>
       </c>
       <c r="D31" s="4"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="6"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="10">
+        <v>0</v>
+      </c>
+      <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
-        <v>200005</v>
+        <v>100029</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>34</v>
+        <v>218</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>33</v>
+        <v>222</v>
       </c>
       <c r="D32" s="4"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="6"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="10">
+        <v>0</v>
+      </c>
+      <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
-        <v>200006</v>
+        <v>100030</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>36</v>
+        <v>219</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>35</v>
+        <v>223</v>
       </c>
       <c r="D33" s="4"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="6"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="10">
+        <v>0</v>
+      </c>
+      <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="10">
-        <v>200007</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>37</v>
+        <v>200001</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="6"/>
@@ -1971,13 +2031,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="10">
-        <v>300001</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>42</v>
+        <v>200002</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="6"/>
@@ -1986,13 +2046,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="10">
-        <v>300002</v>
+        <v>200003</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="6"/>
@@ -2001,13 +2061,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="10">
-        <v>300003</v>
+        <v>200004</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="6"/>
@@ -2016,13 +2076,13 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="10">
-        <v>300004</v>
+        <v>200005</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="6"/>
@@ -2031,13 +2091,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="10">
-        <v>300005</v>
+        <v>200006</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>103</v>
+        <v>36</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="6"/>
@@ -2046,13 +2106,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="10">
-        <v>300006</v>
+        <v>200007</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="6"/>
@@ -2061,13 +2121,13 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="10">
-        <v>300007</v>
+        <v>300001</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="6"/>
@@ -2076,13 +2136,13 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="10">
-        <v>300008</v>
+        <v>300002</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="6"/>
@@ -2091,13 +2151,13 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="10">
-        <v>300009</v>
+        <v>300003</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="6"/>
@@ -2106,13 +2166,13 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="10">
-        <v>300010</v>
+        <v>300004</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="6"/>
@@ -2121,13 +2181,13 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="10">
-        <v>300011</v>
+        <v>300005</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="6"/>
@@ -2136,13 +2196,13 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="10">
-        <v>300012</v>
+        <v>300006</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="6"/>
@@ -2151,13 +2211,13 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="10">
-        <v>300013</v>
+        <v>300007</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="6"/>
@@ -2166,13 +2226,13 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="10">
-        <v>300014</v>
+        <v>300008</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="6"/>
@@ -2181,13 +2241,13 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="10">
-        <v>300015</v>
+        <v>300009</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="6"/>
@@ -2196,13 +2256,13 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="10">
-        <v>300016</v>
+        <v>300010</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="6"/>
@@ -2211,13 +2271,13 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="10">
-        <v>300017</v>
+        <v>300011</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="6"/>
@@ -2226,13 +2286,13 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="10">
-        <v>300018</v>
+        <v>300012</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="6"/>
@@ -2241,13 +2301,13 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="10">
-        <v>300019</v>
+        <v>300013</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="6"/>
@@ -2256,13 +2316,13 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="10">
-        <v>300020</v>
+        <v>300014</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="6"/>
@@ -2271,13 +2331,13 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="10">
-        <v>300021</v>
+        <v>300015</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="6"/>
@@ -2286,13 +2346,13 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="10">
-        <v>300022</v>
+        <v>300016</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="6"/>
@@ -2301,13 +2361,13 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="10">
-        <v>300023</v>
+        <v>300017</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="6"/>
@@ -2316,13 +2376,13 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="10">
-        <v>300024</v>
+        <v>300018</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="6"/>
@@ -2331,13 +2391,13 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="10">
-        <v>300025</v>
+        <v>300019</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="6"/>
@@ -2346,13 +2406,13 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="10">
-        <v>300026</v>
+        <v>300020</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="6"/>
@@ -2361,13 +2421,13 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="10">
-        <v>300027</v>
+        <v>300021</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="6"/>
@@ -2376,13 +2436,13 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="10">
-        <v>300028</v>
+        <v>300022</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="6"/>
@@ -2391,13 +2451,13 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="10">
-        <v>300029</v>
+        <v>300023</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="6"/>
@@ -2406,13 +2466,13 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="10">
-        <v>300030</v>
+        <v>300024</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="6"/>
@@ -2421,13 +2481,13 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="10">
-        <v>300031</v>
+        <v>300025</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="6"/>
@@ -2436,13 +2496,13 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="10">
-        <v>300032</v>
+        <v>300026</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="6"/>
@@ -2451,13 +2511,13 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="10">
-        <v>300033</v>
+        <v>300027</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="6"/>
@@ -2466,13 +2526,13 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="10">
-        <v>300034</v>
+        <v>300028</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="6"/>
@@ -2481,13 +2541,13 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="10">
-        <v>300035</v>
+        <v>300029</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="6"/>
@@ -2496,13 +2556,13 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="10">
-        <v>300036</v>
+        <v>300030</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="6"/>
@@ -2511,13 +2571,13 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="10">
-        <v>300037</v>
+        <v>300031</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="6"/>
@@ -2526,13 +2586,13 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="10">
-        <v>300038</v>
+        <v>300032</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="6"/>
@@ -2541,13 +2601,13 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="10">
-        <v>300039</v>
+        <v>300033</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="6"/>
@@ -2556,13 +2616,13 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="10">
-        <v>300040</v>
+        <v>300034</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="6"/>
@@ -2571,13 +2631,13 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="10">
-        <v>300041</v>
+        <v>300035</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="6"/>
@@ -2586,13 +2646,13 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="10">
-        <v>300042</v>
+        <v>300036</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D76" s="4"/>
       <c r="E76" s="6"/>
@@ -2601,13 +2661,13 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="10">
-        <v>300043</v>
+        <v>300037</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="6"/>
@@ -2616,13 +2676,13 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="10">
-        <v>300044</v>
+        <v>300038</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="6"/>
@@ -2631,13 +2691,13 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="10">
-        <v>300045</v>
+        <v>300039</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="6"/>
@@ -2646,13 +2706,13 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="10">
-        <v>300046</v>
+        <v>300040</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="6"/>
@@ -2661,13 +2721,13 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="10">
-        <v>300047</v>
+        <v>300041</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="6"/>
@@ -2676,13 +2736,13 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="10">
-        <v>300048</v>
+        <v>300042</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="6"/>
@@ -2691,13 +2751,13 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="10">
-        <v>300049</v>
+        <v>300043</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="6"/>
@@ -2706,13 +2766,13 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="10">
-        <v>300050</v>
+        <v>300044</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="6"/>
@@ -2721,13 +2781,13 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="10">
-        <v>300051</v>
+        <v>300045</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="6"/>
@@ -2736,13 +2796,13 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="10">
-        <v>300052</v>
+        <v>300046</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>153</v>
+        <v>96</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="6"/>
@@ -2751,13 +2811,13 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="10">
-        <v>300053</v>
+        <v>300047</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="6"/>
@@ -2766,13 +2826,13 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="10">
-        <v>300054</v>
+        <v>300048</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="6"/>
@@ -2781,13 +2841,13 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="10">
-        <v>300055</v>
+        <v>300049</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="6"/>
@@ -2796,13 +2856,13 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="10">
-        <v>300056</v>
+        <v>300050</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="6"/>
@@ -2811,13 +2871,13 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="10">
-        <v>300057</v>
+        <v>300051</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="6"/>
@@ -2826,13 +2886,13 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="10">
-        <v>300058</v>
+        <v>300052</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>93</v>
+        <v>153</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="6"/>
@@ -2841,13 +2901,13 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="10">
-        <v>300059</v>
+        <v>300053</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="6"/>
@@ -2856,13 +2916,13 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="10">
-        <v>600001</v>
+        <v>300054</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>159</v>
+        <v>87</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="6"/>
@@ -2871,13 +2931,13 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="10">
-        <v>600002</v>
+        <v>300055</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="6"/>
@@ -2886,13 +2946,13 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="10">
-        <v>600003</v>
+        <v>300056</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>163</v>
+        <v>91</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="6"/>
@@ -2901,13 +2961,13 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="10">
-        <v>600004</v>
+        <v>300057</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="6"/>
@@ -2916,13 +2976,13 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="10">
-        <v>600005</v>
+        <v>300058</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>162</v>
+        <v>93</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="6"/>
@@ -2931,54 +2991,144 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="10">
-        <v>700001</v>
+        <v>300059</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>199</v>
+        <v>158</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>196</v>
+        <v>94</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="6"/>
-      <c r="F99" s="10">
-        <v>0</v>
-      </c>
+      <c r="F99" s="14"/>
       <c r="G99" s="6"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="10">
-        <v>700002</v>
+        <v>600001</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>200</v>
+        <v>164</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>197</v>
+        <v>159</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="6"/>
-      <c r="F100" s="10">
-        <v>0</v>
-      </c>
+      <c r="F100" s="14"/>
       <c r="G100" s="6"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="10">
-        <v>700003</v>
+        <v>600002</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>198</v>
+        <v>160</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="6"/>
-      <c r="F101" s="10">
+      <c r="F101" s="14"/>
+      <c r="G101" s="6"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" s="10">
+        <v>600003</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D102" s="4"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="14"/>
+      <c r="G102" s="6"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" s="10">
+        <v>600004</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D103" s="4"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="14"/>
+      <c r="G103" s="6"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" s="10">
+        <v>600005</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D104" s="4"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="14"/>
+      <c r="G104" s="6"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" s="10">
+        <v>700001</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D105" s="4"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="10">
         <v>0</v>
       </c>
-      <c r="G101" s="6"/>
+      <c r="G105" s="6"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" s="10">
+        <v>700002</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D106" s="4"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="10">
+        <v>0</v>
+      </c>
+      <c r="G106" s="6"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" s="10">
+        <v>700003</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D107" s="4"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="10">
+        <v>0</v>
+      </c>
+      <c r="G107" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/gfconf/conf/item.xlsx
+++ b/gfconf/conf/item.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myproject\gamefun\gfconf\conf\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DBD987-5068-4C11-90D6-4A3277D622EC}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新表" sheetId="1" r:id="rId1"/>
@@ -14,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Cinky</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -36,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="231">
   <si>
     <t>编号</t>
   </si>
@@ -837,18 +843,28 @@
   <si>
     <t>语言选项</t>
   </si>
+  <si>
+    <t>favoriteAlliance</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注的联盟</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>联赛奖杯</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>leaguePrize</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -895,151 +911,25 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1048,198 +938,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1275,255 +979,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1564,62 +1026,19 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1906,34 +1325,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G108"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="11.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="19" style="1" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="17" max="17" width="8.88333333333333" customWidth="1"/>
-    <col min="18" max="18" width="9.33333333333333" customWidth="1"/>
-    <col min="22" max="22" width="11.6666666666667" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" customWidth="1"/>
+    <col min="18" max="18" width="9.33203125" customWidth="1"/>
+    <col min="22" max="22" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:7">
+    <row r="1" spans="1:7" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1956,7 +1374,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:7">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -1979,7 +1397,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>100000</v>
       </c>
@@ -1994,7 +1412,7 @@
       <c r="F3" s="12"/>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" ht="14.25" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>100001</v>
       </c>
@@ -2009,7 +1427,7 @@
       <c r="F4" s="13"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" ht="14.25" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>100002</v>
       </c>
@@ -2024,7 +1442,7 @@
       <c r="F5" s="13"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" ht="14.25" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>100003</v>
       </c>
@@ -2039,7 +1457,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" ht="14.25" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>100004</v>
       </c>
@@ -2054,7 +1472,7 @@
       <c r="F7" s="13"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" ht="14.25" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>100005</v>
       </c>
@@ -2069,7 +1487,7 @@
       <c r="F8" s="13"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" ht="14.25" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>100006</v>
       </c>
@@ -2084,7 +1502,7 @@
       <c r="F9" s="13"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" ht="14.25" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>100007</v>
       </c>
@@ -2099,7 +1517,7 @@
       <c r="F10" s="13"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" ht="14.25" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>100008</v>
       </c>
@@ -2114,7 +1532,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" ht="14.25" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>100009</v>
       </c>
@@ -2129,7 +1547,7 @@
       <c r="F12" s="13"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" ht="14.25" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>100010</v>
       </c>
@@ -2144,7 +1562,7 @@
       <c r="F13" s="13"/>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" ht="14.25" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>100011</v>
       </c>
@@ -2159,7 +1577,7 @@
       <c r="F14" s="13"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" ht="14.25" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>100012</v>
       </c>
@@ -2174,7 +1592,7 @@
       <c r="F15" s="13"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" ht="14.25" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>100013</v>
       </c>
@@ -2189,7 +1607,7 @@
       <c r="F16" s="13"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" ht="14.25" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>100014</v>
       </c>
@@ -2204,7 +1622,7 @@
       <c r="F17" s="13"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" ht="14.25" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>100015</v>
       </c>
@@ -2219,7 +1637,7 @@
       <c r="F18" s="13"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" ht="14.25" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>100016</v>
       </c>
@@ -2234,7 +1652,7 @@
       <c r="F19" s="13"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" ht="14.25" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>100017</v>
       </c>
@@ -2249,7 +1667,7 @@
       <c r="F20" s="13"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" ht="14.25" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>100018</v>
       </c>
@@ -2264,7 +1682,7 @@
       <c r="F21" s="13"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" ht="14.25" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>100019</v>
       </c>
@@ -2279,7 +1697,7 @@
       <c r="F22" s="13"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" ht="14.25" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>100020</v>
       </c>
@@ -2294,7 +1712,7 @@
       <c r="F23" s="13"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" ht="14.25" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>100021</v>
       </c>
@@ -2309,7 +1727,7 @@
       <c r="F24" s="9"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" ht="14.25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>100022</v>
       </c>
@@ -2324,7 +1742,7 @@
       <c r="F25" s="9"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" ht="14.25" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>100023</v>
       </c>
@@ -2339,7 +1757,7 @@
       <c r="F26" s="9"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" ht="14.25" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>100024</v>
       </c>
@@ -2354,7 +1772,7 @@
       <c r="F27" s="9"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" ht="14.25" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>100025</v>
       </c>
@@ -2371,7 +1789,7 @@
       </c>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" ht="14.25" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>100026</v>
       </c>
@@ -2388,7 +1806,7 @@
       </c>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" ht="14.25" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>100027</v>
       </c>
@@ -2405,7 +1823,7 @@
       </c>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" ht="14.25" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>100028</v>
       </c>
@@ -2422,7 +1840,7 @@
       </c>
       <c r="G31" s="11"/>
     </row>
-    <row r="32" ht="14.25" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>100029</v>
       </c>
@@ -2439,7 +1857,7 @@
       </c>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" ht="14.25" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>100030</v>
       </c>
@@ -2456,7 +1874,7 @@
       </c>
       <c r="G33" s="11"/>
     </row>
-    <row r="34" customFormat="1" ht="14.25" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <v>100031</v>
       </c>
@@ -2473,1114 +1891,1112 @@
       </c>
       <c r="G34" s="10"/>
     </row>
-    <row r="35" ht="14.25" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
-        <v>200001</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>80</v>
+        <v>100032</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>228</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="10"/>
-      <c r="F35" s="12"/>
+      <c r="F35" s="12" t="s">
+        <v>78</v>
+      </c>
       <c r="G35" s="10"/>
     </row>
-    <row r="36" ht="14.25" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
-        <v>200002</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>82</v>
+        <v>100033</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>229</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="10"/>
       <c r="F36" s="12"/>
       <c r="G36" s="10"/>
     </row>
-    <row r="37" ht="14.25" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="9">
-        <v>200003</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>84</v>
+        <v>200001</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="10"/>
       <c r="F37" s="12"/>
       <c r="G37" s="10"/>
     </row>
-    <row r="38" ht="14.25" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="9">
-        <v>200004</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>85</v>
+        <v>200002</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="10"/>
       <c r="F38" s="12"/>
       <c r="G38" s="10"/>
     </row>
-    <row r="39" ht="14.25" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="9">
-        <v>200005</v>
+        <v>200003</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="10"/>
       <c r="F39" s="12"/>
       <c r="G39" s="10"/>
     </row>
-    <row r="40" ht="14.25" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="9">
-        <v>200006</v>
+        <v>200004</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="10"/>
       <c r="F40" s="12"/>
       <c r="G40" s="10"/>
     </row>
-    <row r="41" ht="14.25" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="9">
-        <v>200007</v>
+        <v>200005</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="10"/>
       <c r="F41" s="12"/>
       <c r="G41" s="10"/>
     </row>
-    <row r="42" ht="14.25" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="9">
-        <v>300001</v>
+        <v>200006</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="10"/>
       <c r="F42" s="12"/>
       <c r="G42" s="10"/>
     </row>
-    <row r="43" ht="14.25" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="9">
-        <v>300002</v>
+        <v>200007</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="10"/>
       <c r="F43" s="12"/>
       <c r="G43" s="10"/>
     </row>
-    <row r="44" ht="14.25" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="9">
-        <v>300003</v>
+        <v>300001</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="10"/>
       <c r="F44" s="12"/>
       <c r="G44" s="10"/>
     </row>
-    <row r="45" ht="14.25" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="9">
-        <v>300004</v>
+        <v>300002</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="10"/>
       <c r="F45" s="12"/>
       <c r="G45" s="10"/>
     </row>
-    <row r="46" ht="14.25" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="9">
-        <v>300005</v>
+        <v>300003</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="10"/>
       <c r="F46" s="12"/>
       <c r="G46" s="10"/>
     </row>
-    <row r="47" ht="14.25" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="9">
-        <v>300006</v>
+        <v>300004</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="10"/>
       <c r="F47" s="12"/>
       <c r="G47" s="10"/>
     </row>
-    <row r="48" ht="14.25" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="9">
-        <v>300007</v>
+        <v>300005</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="10"/>
       <c r="F48" s="12"/>
       <c r="G48" s="10"/>
     </row>
-    <row r="49" ht="14.25" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="9">
-        <v>300008</v>
+        <v>300006</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="10"/>
       <c r="F49" s="12"/>
       <c r="G49" s="10"/>
     </row>
-    <row r="50" ht="14.25" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="9">
-        <v>300009</v>
+        <v>300007</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="10"/>
       <c r="F50" s="12"/>
       <c r="G50" s="10"/>
     </row>
-    <row r="51" ht="14.25" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="9">
-        <v>300010</v>
+        <v>300008</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="10"/>
       <c r="F51" s="12"/>
       <c r="G51" s="10"/>
     </row>
-    <row r="52" ht="14.25" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="9">
-        <v>300011</v>
+        <v>300009</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="10"/>
       <c r="F52" s="12"/>
       <c r="G52" s="10"/>
     </row>
-    <row r="53" ht="14.25" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="9">
-        <v>300012</v>
+        <v>300010</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="10"/>
       <c r="F53" s="12"/>
       <c r="G53" s="10"/>
     </row>
-    <row r="54" ht="14.25" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="9">
-        <v>300013</v>
+        <v>300011</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="10"/>
       <c r="F54" s="12"/>
       <c r="G54" s="10"/>
     </row>
-    <row r="55" ht="14.25" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="9">
-        <v>300014</v>
+        <v>300012</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="10"/>
       <c r="F55" s="12"/>
       <c r="G55" s="10"/>
     </row>
-    <row r="56" ht="14.25" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="9">
-        <v>300015</v>
+        <v>300013</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="10"/>
       <c r="F56" s="12"/>
       <c r="G56" s="10"/>
     </row>
-    <row r="57" ht="14.25" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="9">
-        <v>300016</v>
+        <v>300014</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="10"/>
       <c r="F57" s="12"/>
       <c r="G57" s="10"/>
     </row>
-    <row r="58" ht="14.25" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="9">
-        <v>300017</v>
+        <v>300015</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="10"/>
       <c r="F58" s="12"/>
       <c r="G58" s="10"/>
     </row>
-    <row r="59" ht="14.25" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="9">
-        <v>300018</v>
+        <v>300016</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="10"/>
       <c r="F59" s="12"/>
       <c r="G59" s="10"/>
     </row>
-    <row r="60" ht="14.25" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="9">
-        <v>300019</v>
+        <v>300017</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="10"/>
       <c r="F60" s="12"/>
       <c r="G60" s="10"/>
     </row>
-    <row r="61" ht="14.25" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="9">
-        <v>300020</v>
+        <v>300018</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="10"/>
       <c r="F61" s="12"/>
       <c r="G61" s="10"/>
     </row>
-    <row r="62" ht="14.25" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="9">
-        <v>300021</v>
+        <v>300019</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="10"/>
       <c r="F62" s="12"/>
       <c r="G62" s="10"/>
     </row>
-    <row r="63" ht="14.25" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="9">
-        <v>300022</v>
+        <v>300020</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="10"/>
       <c r="F63" s="12"/>
       <c r="G63" s="10"/>
     </row>
-    <row r="64" ht="14.25" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="9">
-        <v>300023</v>
+        <v>300021</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="10"/>
       <c r="F64" s="12"/>
       <c r="G64" s="10"/>
     </row>
-    <row r="65" ht="14.25" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="9">
-        <v>300024</v>
+        <v>300022</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="10"/>
       <c r="F65" s="12"/>
       <c r="G65" s="10"/>
     </row>
-    <row r="66" ht="14.25" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="9">
-        <v>300025</v>
+        <v>300023</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="10"/>
       <c r="F66" s="12"/>
       <c r="G66" s="10"/>
     </row>
-    <row r="67" ht="14.25" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="9">
-        <v>300026</v>
+        <v>300024</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="10"/>
       <c r="F67" s="12"/>
       <c r="G67" s="10"/>
     </row>
-    <row r="68" ht="14.25" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="9">
-        <v>300027</v>
+        <v>300025</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="10"/>
       <c r="F68" s="12"/>
       <c r="G68" s="10"/>
     </row>
-    <row r="69" ht="14.25" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="9">
-        <v>300028</v>
+        <v>300026</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="10"/>
       <c r="F69" s="12"/>
       <c r="G69" s="10"/>
     </row>
-    <row r="70" ht="14.25" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="9">
-        <v>300029</v>
+        <v>300027</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="10"/>
       <c r="F70" s="12"/>
       <c r="G70" s="10"/>
     </row>
-    <row r="71" ht="14.25" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="9">
-        <v>300030</v>
+        <v>300028</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="10"/>
       <c r="F71" s="12"/>
       <c r="G71" s="10"/>
     </row>
-    <row r="72" ht="14.25" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="9">
-        <v>300031</v>
+        <v>300029</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="10"/>
       <c r="F72" s="12"/>
       <c r="G72" s="10"/>
     </row>
-    <row r="73" ht="14.25" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="9">
-        <v>300032</v>
+        <v>300030</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="10"/>
       <c r="F73" s="12"/>
       <c r="G73" s="10"/>
     </row>
-    <row r="74" ht="14.25" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="9">
-        <v>300033</v>
+        <v>300031</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="10"/>
       <c r="F74" s="12"/>
       <c r="G74" s="10"/>
     </row>
-    <row r="75" ht="14.25" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="9">
-        <v>300034</v>
+        <v>300032</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="10"/>
       <c r="F75" s="12"/>
       <c r="G75" s="10"/>
     </row>
-    <row r="76" ht="14.25" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="9">
-        <v>300035</v>
+        <v>300033</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="10"/>
       <c r="F76" s="12"/>
       <c r="G76" s="10"/>
     </row>
-    <row r="77" ht="14.25" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="9">
-        <v>300036</v>
+        <v>300034</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="10"/>
       <c r="F77" s="12"/>
       <c r="G77" s="10"/>
     </row>
-    <row r="78" ht="14.25" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="9">
-        <v>300037</v>
+        <v>300035</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="10"/>
       <c r="F78" s="12"/>
       <c r="G78" s="10"/>
     </row>
-    <row r="79" ht="14.25" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="9">
-        <v>300038</v>
+        <v>300036</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D79" s="11"/>
       <c r="E79" s="10"/>
       <c r="F79" s="12"/>
       <c r="G79" s="10"/>
     </row>
-    <row r="80" ht="14.25" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="9">
-        <v>300039</v>
+        <v>300037</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D80" s="11"/>
       <c r="E80" s="10"/>
       <c r="F80" s="12"/>
       <c r="G80" s="10"/>
     </row>
-    <row r="81" ht="14.25" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="9">
-        <v>300040</v>
+        <v>300038</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="10"/>
       <c r="F81" s="12"/>
       <c r="G81" s="10"/>
     </row>
-    <row r="82" ht="14.25" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="9">
-        <v>300041</v>
+        <v>300039</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="10"/>
       <c r="F82" s="12"/>
       <c r="G82" s="10"/>
     </row>
-    <row r="83" ht="14.25" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="9">
-        <v>300042</v>
+        <v>300040</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D83" s="11"/>
       <c r="E83" s="10"/>
       <c r="F83" s="12"/>
       <c r="G83" s="10"/>
     </row>
-    <row r="84" ht="14.25" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="9">
-        <v>300043</v>
+        <v>300041</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="10"/>
       <c r="F84" s="12"/>
       <c r="G84" s="10"/>
     </row>
-    <row r="85" ht="14.25" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="9">
-        <v>300044</v>
+        <v>300042</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="10"/>
       <c r="F85" s="12"/>
       <c r="G85" s="10"/>
     </row>
-    <row r="86" ht="14.25" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="9">
-        <v>300045</v>
+        <v>300043</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="10"/>
       <c r="F86" s="12"/>
       <c r="G86" s="10"/>
     </row>
-    <row r="87" ht="14.25" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="9">
-        <v>300046</v>
+        <v>300044</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D87" s="11"/>
       <c r="E87" s="10"/>
       <c r="F87" s="12"/>
       <c r="G87" s="10"/>
     </row>
-    <row r="88" ht="14.25" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="9">
-        <v>300047</v>
+        <v>300045</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D88" s="11"/>
       <c r="E88" s="10"/>
       <c r="F88" s="12"/>
       <c r="G88" s="10"/>
     </row>
-    <row r="89" ht="14.25" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="9">
-        <v>300048</v>
+        <v>300046</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D89" s="11"/>
       <c r="E89" s="10"/>
       <c r="F89" s="12"/>
       <c r="G89" s="10"/>
     </row>
-    <row r="90" ht="14.25" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="9">
-        <v>300049</v>
+        <v>300047</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="10"/>
       <c r="F90" s="12"/>
       <c r="G90" s="10"/>
     </row>
-    <row r="91" ht="14.25" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="9">
-        <v>300050</v>
+        <v>300048</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="10"/>
       <c r="F91" s="12"/>
       <c r="G91" s="10"/>
     </row>
-    <row r="92" ht="14.25" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="9">
-        <v>300051</v>
+        <v>300049</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="10"/>
       <c r="F92" s="12"/>
       <c r="G92" s="10"/>
     </row>
-    <row r="93" ht="14.25" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="9">
-        <v>300052</v>
+        <v>300050</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D93" s="11"/>
       <c r="E93" s="10"/>
       <c r="F93" s="12"/>
       <c r="G93" s="10"/>
     </row>
-    <row r="94" ht="14.25" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="9">
-        <v>300053</v>
+        <v>300051</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D94" s="11"/>
       <c r="E94" s="10"/>
       <c r="F94" s="12"/>
       <c r="G94" s="10"/>
     </row>
-    <row r="95" ht="14.25" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="9">
-        <v>300054</v>
+        <v>300052</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D95" s="11"/>
       <c r="E95" s="10"/>
       <c r="F95" s="12"/>
       <c r="G95" s="10"/>
     </row>
-    <row r="96" ht="14.25" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="9">
-        <v>300055</v>
+        <v>300053</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D96" s="11"/>
       <c r="E96" s="10"/>
       <c r="F96" s="12"/>
       <c r="G96" s="10"/>
     </row>
-    <row r="97" ht="14.25" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="9">
-        <v>300056</v>
+        <v>300054</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D97" s="11"/>
       <c r="E97" s="10"/>
       <c r="F97" s="12"/>
       <c r="G97" s="10"/>
     </row>
-    <row r="98" ht="14.25" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="9">
-        <v>300057</v>
+        <v>300055</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D98" s="11"/>
       <c r="E98" s="10"/>
       <c r="F98" s="12"/>
       <c r="G98" s="10"/>
     </row>
-    <row r="99" ht="14.25" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="9">
-        <v>300058</v>
+        <v>300056</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D99" s="11"/>
       <c r="E99" s="10"/>
       <c r="F99" s="12"/>
       <c r="G99" s="10"/>
     </row>
-    <row r="100" ht="14.25" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="9">
-        <v>300059</v>
+        <v>300057</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D100" s="11"/>
       <c r="E100" s="10"/>
       <c r="F100" s="12"/>
       <c r="G100" s="10"/>
     </row>
-    <row r="101" ht="14.25" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="9">
-        <v>600001</v>
+        <v>300058</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D101" s="11"/>
       <c r="E101" s="10"/>
       <c r="F101" s="12"/>
       <c r="G101" s="10"/>
     </row>
-    <row r="102" ht="14.25" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="9">
-        <v>600002</v>
+        <v>300059</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="10"/>
       <c r="F102" s="12"/>
       <c r="G102" s="10"/>
     </row>
-    <row r="103" ht="14.25" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="9">
-        <v>600003</v>
+        <v>600001</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D103" s="11"/>
       <c r="E103" s="10"/>
       <c r="F103" s="12"/>
       <c r="G103" s="10"/>
     </row>
-    <row r="104" ht="14.25" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="9">
-        <v>600004</v>
+        <v>600002</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="10"/>
       <c r="F104" s="12"/>
       <c r="G104" s="10"/>
     </row>
-    <row r="105" ht="14.25" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="9">
-        <v>600005</v>
+        <v>600003</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D105" s="11"/>
       <c r="E105" s="10"/>
       <c r="F105" s="12"/>
       <c r="G105" s="10"/>
     </row>
-    <row r="106" ht="14.25" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="9">
-        <v>700001</v>
+        <v>600004</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D106" s="11"/>
       <c r="E106" s="10"/>
-      <c r="F106" s="9">
-        <v>0</v>
-      </c>
+      <c r="F106" s="12"/>
       <c r="G106" s="10"/>
     </row>
-    <row r="107" ht="14.25" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="9">
-        <v>700002</v>
+        <v>600005</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D107" s="11"/>
       <c r="E107" s="10"/>
-      <c r="F107" s="9">
-        <v>0</v>
-      </c>
+      <c r="F107" s="12"/>
       <c r="G107" s="10"/>
     </row>
-    <row r="108" ht="14.25" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="9">
-        <v>700003</v>
+        <v>700001</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D108" s="11"/>
       <c r="E108" s="10"/>
@@ -3589,10 +3005,44 @@
       </c>
       <c r="G108" s="10"/>
     </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" s="9">
+        <v>700002</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="D109" s="11"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="9">
+        <v>0</v>
+      </c>
+      <c r="G109" s="10"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" s="9">
+        <v>700003</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="D110" s="11"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="9">
+        <v>0</v>
+      </c>
+      <c r="G110" s="10"/>
+    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/gfconf/conf/item.xlsx
+++ b/gfconf/conf/item.xlsx
@@ -50,7 +50,31 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-Unknown(0), Army(1), Hero(2);</t>
+Unknown(0), Army(1), Hero(2), Build(3);</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0: not
+empty:not
+1: ok</t>
         </r>
       </text>
     </comment>
@@ -59,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226">
   <si>
     <t>编号</t>
   </si>
@@ -80,6 +104,9 @@
   </si>
   <si>
     <t>物品种类</t>
+  </si>
+  <si>
+    <t>其他玩家是否可见</t>
   </si>
   <si>
     <t>id</t>
@@ -137,10 +164,16 @@
     <t>category</t>
   </si>
   <si>
+    <t>isVisableByOtherRole</t>
+  </si>
+  <si>
     <t>roleLevel</t>
   </si>
   <si>
     <t>角色等级</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <r>
@@ -388,6 +421,9 @@
     <t>主基地</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>defenseTowerLeft</t>
   </si>
   <si>
@@ -447,9 +483,6 @@
     <t>野蛮人</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>archer</t>
   </si>
   <si>
@@ -854,12 +887,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -887,22 +920,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -916,7 +942,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -930,8 +972,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -959,33 +1018,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1000,33 +1034,26 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1037,7 +1064,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1052,19 +1079,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1076,19 +1109,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1100,61 +1133,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1166,7 +1151,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1184,6 +1169,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1196,7 +1205,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1208,25 +1241,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1274,21 +1295,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1313,6 +1319,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1320,21 +1341,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1358,16 +1364,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1379,10 +1400,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1391,137 +1412,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1548,7 +1569,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1897,15 +1917,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G105"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I29" sqref="I29"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.6666666666667" customWidth="1"/>
@@ -1913,12 +1933,13 @@
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="19" style="1" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="17" max="17" width="8.88333333333333" customWidth="1"/>
-    <col min="18" max="18" width="9.33333333333333" customWidth="1"/>
-    <col min="22" max="22" width="11.6666666666667" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="18" max="18" width="8.88333333333333" customWidth="1"/>
+    <col min="19" max="19" width="9.33333333333333" customWidth="1"/>
+    <col min="23" max="23" width="11.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:7">
+    <row r="1" ht="15" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1940,414 +1961,447 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" ht="16.5" spans="1:7">
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="16.5" spans="1:8">
       <c r="A2" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:8">
       <c r="A3" s="6">
         <v>100000</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="8"/>
       <c r="G3" s="7"/>
-    </row>
-    <row r="4" ht="14.25" spans="1:7">
+      <c r="H3" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:8">
       <c r="A4" s="6">
         <v>100001</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="8"/>
       <c r="G4" s="7"/>
-    </row>
-    <row r="5" ht="14.25" spans="1:7">
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" ht="14.25" spans="1:8">
       <c r="A5" s="6">
         <v>100002</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="8"/>
       <c r="G5" s="7"/>
-    </row>
-    <row r="6" ht="14.25" spans="1:7">
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:8">
       <c r="A6" s="6">
         <v>100003</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
       <c r="G6" s="7"/>
-    </row>
-    <row r="7" ht="14.25" spans="1:7">
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" ht="14.25" spans="1:8">
       <c r="A7" s="6">
         <v>100004</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="8"/>
       <c r="G7" s="7"/>
-    </row>
-    <row r="8" ht="14.25" spans="1:7">
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" ht="14.25" spans="1:8">
       <c r="A8" s="6">
         <v>100005</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
       <c r="G8" s="7"/>
-    </row>
-    <row r="9" ht="14.25" spans="1:7">
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" ht="14.25" spans="1:8">
       <c r="A9" s="6">
         <v>100006</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
       <c r="G9" s="7"/>
-    </row>
-    <row r="10" ht="14.25" spans="1:7">
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" ht="14.25" spans="1:8">
       <c r="A10" s="6">
         <v>100007</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
       <c r="G10" s="7"/>
-    </row>
-    <row r="11" ht="14.25" spans="1:7">
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" ht="14.25" spans="1:8">
       <c r="A11" s="6">
         <v>100008</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
       <c r="G11" s="7"/>
-    </row>
-    <row r="12" ht="14.25" spans="1:7">
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" ht="14.25" spans="1:8">
       <c r="A12" s="6">
         <v>100009</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="8"/>
       <c r="G12" s="7"/>
-    </row>
-    <row r="13" ht="14.25" spans="1:7">
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" ht="14.25" spans="1:8">
       <c r="A13" s="6">
         <v>100010</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="8"/>
       <c r="G13" s="7"/>
-    </row>
-    <row r="14" ht="14.25" spans="1:7">
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" ht="14.25" spans="1:8">
       <c r="A14" s="6">
         <v>100011</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="8"/>
       <c r="G14" s="7"/>
-    </row>
-    <row r="15" ht="14.25" spans="1:7">
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" ht="14.25" spans="1:8">
       <c r="A15" s="6">
         <v>100012</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="8"/>
       <c r="G15" s="7"/>
-    </row>
-    <row r="16" ht="14.25" spans="1:7">
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" ht="14.25" spans="1:8">
       <c r="A16" s="6">
         <v>100013</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="8"/>
       <c r="G16" s="7"/>
-    </row>
-    <row r="17" ht="14.25" spans="1:7">
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" ht="14.25" spans="1:8">
       <c r="A17" s="6">
         <v>100014</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="8"/>
       <c r="G17" s="7"/>
-    </row>
-    <row r="18" ht="14.25" spans="1:7">
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" ht="14.25" spans="1:8">
       <c r="A18" s="6">
         <v>100015</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="8"/>
       <c r="G18" s="7"/>
-    </row>
-    <row r="19" ht="14.25" spans="1:7">
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" ht="14.25" spans="1:8">
       <c r="A19" s="6">
         <v>100016</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="8"/>
       <c r="G19" s="7"/>
-    </row>
-    <row r="20" ht="14.25" spans="1:7">
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" ht="14.25" spans="1:8">
       <c r="A20" s="6">
         <v>100017</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="8"/>
       <c r="G20" s="7"/>
-    </row>
-    <row r="21" ht="14.25" spans="1:7">
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" ht="14.25" spans="1:8">
       <c r="A21" s="6">
         <v>100018</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="8"/>
       <c r="G21" s="7"/>
-    </row>
-    <row r="22" ht="14.25" spans="1:7">
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" ht="14.25" spans="1:8">
       <c r="A22" s="6">
         <v>100019</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="8"/>
       <c r="G22" s="7"/>
-    </row>
-    <row r="23" ht="14.25" spans="1:7">
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" ht="14.25" spans="1:8">
       <c r="A23" s="6">
         <v>100020</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="8"/>
       <c r="G23" s="7"/>
-    </row>
-    <row r="24" ht="14.25" spans="1:7">
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" ht="14.25" spans="1:8">
       <c r="A24" s="6">
         <v>100021</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="6"/>
       <c r="G24" s="7"/>
-    </row>
-    <row r="25" ht="14.25" spans="1:7">
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" ht="14.25" spans="1:8">
       <c r="A25" s="6">
         <v>100022</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="6"/>
       <c r="G25" s="7"/>
-    </row>
-    <row r="26" ht="14.25" spans="1:7">
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" ht="14.25" spans="1:8">
       <c r="A26" s="6">
         <v>100023</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="6"/>
       <c r="G26" s="7"/>
-    </row>
-    <row r="27" ht="14.25" spans="1:7">
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" ht="14.25" spans="1:8">
       <c r="A27" s="6">
         <v>100024</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="6"/>
       <c r="G27" s="7"/>
-    </row>
-    <row r="28" ht="14.25" spans="1:7">
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" ht="14.25" spans="1:8">
       <c r="A28" s="6">
         <v>100025</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -2355,1166 +2409,1259 @@
         <v>0</v>
       </c>
       <c r="G28" s="7"/>
-    </row>
-    <row r="29" ht="14.25" spans="1:7">
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" ht="14.25" spans="1:8">
       <c r="A29" s="6">
         <v>100031</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G29" s="7"/>
-    </row>
-    <row r="30" ht="14.25" spans="1:7">
+      <c r="H29" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25" spans="1:8">
       <c r="A30" s="6">
         <v>100032</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G30" s="7"/>
-    </row>
-    <row r="31" ht="14.25" spans="1:7">
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" ht="14.25" spans="1:8">
       <c r="A31" s="6">
         <v>100033</v>
       </c>
-      <c r="B31" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>72</v>
+      <c r="B31" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="8"/>
       <c r="G31" s="7"/>
-    </row>
-    <row r="32" ht="14.25" spans="1:7">
+      <c r="H31" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25" spans="1:8">
       <c r="A32" s="6">
         <v>200001</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="8"/>
-      <c r="G32" s="7"/>
-    </row>
-    <row r="33" ht="14.25" spans="1:7">
+      <c r="G32" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" ht="14.25" spans="1:8">
       <c r="A33" s="6">
         <v>200002</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="8"/>
-      <c r="G33" s="7"/>
-    </row>
-    <row r="34" ht="14.25" spans="1:7">
+      <c r="G33" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" ht="14.25" spans="1:8">
       <c r="A34" s="6">
         <v>200003</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="8"/>
-      <c r="G34" s="7"/>
-    </row>
-    <row r="35" ht="14.25" spans="1:7">
+      <c r="G34" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" ht="14.25" spans="1:8">
       <c r="A35" s="6">
         <v>200004</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="8"/>
-      <c r="G35" s="7"/>
-    </row>
-    <row r="36" ht="14.25" spans="1:7">
+      <c r="G35" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" ht="14.25" spans="1:8">
       <c r="A36" s="6">
         <v>200005</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="8"/>
-      <c r="G36" s="7"/>
-    </row>
-    <row r="37" ht="14.25" spans="1:7">
+      <c r="G36" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" ht="14.25" spans="1:8">
       <c r="A37" s="6">
         <v>200006</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="8"/>
-      <c r="G37" s="7"/>
-    </row>
-    <row r="38" ht="14.25" spans="1:7">
+      <c r="G37" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" ht="14.25" spans="1:8">
       <c r="A38" s="6">
         <v>200007</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="8"/>
-      <c r="G38" s="7"/>
-    </row>
-    <row r="39" ht="14.25" spans="1:7">
+      <c r="G38" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" ht="14.25" spans="1:8">
       <c r="A39" s="6">
         <v>300001</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="8"/>
       <c r="G39" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="40" ht="14.25" spans="1:7">
+        <v>18</v>
+      </c>
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" ht="14.25" spans="1:8">
       <c r="A40" s="6">
         <v>300002</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="8"/>
       <c r="G40" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="41" ht="14.25" spans="1:7">
+        <v>18</v>
+      </c>
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" ht="14.25" spans="1:8">
       <c r="A41" s="6">
         <v>300003</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="8"/>
       <c r="G41" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="42" ht="14.25" spans="1:7">
+        <v>18</v>
+      </c>
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" ht="14.25" spans="1:8">
       <c r="A42" s="6">
         <v>300004</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="8"/>
       <c r="G42" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="43" ht="14.25" spans="1:7">
+        <v>18</v>
+      </c>
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" ht="14.25" spans="1:8">
       <c r="A43" s="6">
         <v>300005</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="8"/>
       <c r="G43" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="44" ht="14.25" spans="1:7">
+        <v>18</v>
+      </c>
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" ht="14.25" spans="1:8">
       <c r="A44" s="6">
         <v>300006</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="8"/>
       <c r="G44" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="45" ht="14.25" spans="1:7">
+        <v>18</v>
+      </c>
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" ht="14.25" spans="1:8">
       <c r="A45" s="6">
         <v>300007</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="8"/>
       <c r="G45" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" ht="14.25" spans="1:7">
+        <v>18</v>
+      </c>
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" ht="14.25" spans="1:8">
       <c r="A46" s="6">
         <v>300008</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="8"/>
       <c r="G46" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="47" ht="14.25" spans="1:7">
+        <v>18</v>
+      </c>
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" ht="14.25" spans="1:8">
       <c r="A47" s="6">
         <v>300009</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="8"/>
       <c r="G47" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="48" ht="14.25" spans="1:7">
+        <v>109</v>
+      </c>
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" ht="14.25" spans="1:8">
       <c r="A48" s="6">
         <v>300010</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="8"/>
       <c r="G48" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="49" ht="14.25" spans="1:7">
+        <v>109</v>
+      </c>
+      <c r="H48" s="7"/>
+    </row>
+    <row r="49" ht="14.25" spans="1:8">
       <c r="A49" s="6">
         <v>300011</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="8"/>
       <c r="G49" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="50" ht="14.25" spans="1:7">
+        <v>18</v>
+      </c>
+      <c r="H49" s="7"/>
+    </row>
+    <row r="50" ht="14.25" spans="1:8">
       <c r="A50" s="6">
         <v>300012</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="8"/>
       <c r="G50" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="51" ht="14.25" spans="1:7">
+        <v>109</v>
+      </c>
+      <c r="H50" s="7"/>
+    </row>
+    <row r="51" ht="14.25" spans="1:8">
       <c r="A51" s="6">
         <v>300013</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="8"/>
       <c r="G51" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="52" ht="14.25" spans="1:7">
+        <v>18</v>
+      </c>
+      <c r="H51" s="7"/>
+    </row>
+    <row r="52" ht="14.25" spans="1:8">
       <c r="A52" s="6">
         <v>300014</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="8"/>
       <c r="G52" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="53" ht="14.25" spans="1:7">
+        <v>18</v>
+      </c>
+      <c r="H52" s="7"/>
+    </row>
+    <row r="53" ht="14.25" spans="1:8">
       <c r="A53" s="6">
         <v>300015</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="8"/>
       <c r="G53" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="54" ht="14.25" spans="1:7">
+        <v>18</v>
+      </c>
+      <c r="H53" s="7"/>
+    </row>
+    <row r="54" ht="14.25" spans="1:8">
       <c r="A54" s="6">
         <v>300016</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="8"/>
       <c r="G54" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="55" ht="14.25" spans="1:7">
+        <v>109</v>
+      </c>
+      <c r="H54" s="7"/>
+    </row>
+    <row r="55" ht="14.25" spans="1:8">
       <c r="A55" s="6">
         <v>300017</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
       <c r="F55" s="8"/>
       <c r="G55" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="56" ht="14.25" spans="1:7">
+        <v>18</v>
+      </c>
+      <c r="H55" s="7"/>
+    </row>
+    <row r="56" ht="14.25" spans="1:8">
       <c r="A56" s="6">
         <v>300018</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="8"/>
       <c r="G56" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="57" ht="14.25" spans="1:7">
+        <v>109</v>
+      </c>
+      <c r="H56" s="7"/>
+    </row>
+    <row r="57" ht="14.25" spans="1:8">
       <c r="A57" s="6">
         <v>300019</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
       <c r="F57" s="8"/>
       <c r="G57" s="7"/>
-    </row>
-    <row r="58" ht="14.25" spans="1:7">
+      <c r="H57" s="7"/>
+    </row>
+    <row r="58" ht="14.25" spans="1:8">
       <c r="A58" s="6">
         <v>300020</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
       <c r="F58" s="8"/>
       <c r="G58" s="7"/>
-    </row>
-    <row r="59" ht="14.25" spans="1:7">
+      <c r="H58" s="7"/>
+    </row>
+    <row r="59" ht="14.25" spans="1:8">
       <c r="A59" s="6">
         <v>300021</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
       <c r="F59" s="8"/>
       <c r="G59" s="7"/>
-    </row>
-    <row r="60" ht="14.25" spans="1:7">
+      <c r="H59" s="7"/>
+    </row>
+    <row r="60" ht="14.25" spans="1:8">
       <c r="A60" s="6">
         <v>300022</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
       <c r="F60" s="8"/>
       <c r="G60" s="7"/>
-    </row>
-    <row r="61" ht="14.25" spans="1:7">
+      <c r="H60" s="7"/>
+    </row>
+    <row r="61" ht="14.25" spans="1:8">
       <c r="A61" s="6">
         <v>300023</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
       <c r="F61" s="8"/>
       <c r="G61" s="7"/>
-    </row>
-    <row r="62" ht="14.25" spans="1:7">
+      <c r="H61" s="7"/>
+    </row>
+    <row r="62" ht="14.25" spans="1:8">
       <c r="A62" s="6">
         <v>300024</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
       <c r="F62" s="8"/>
       <c r="G62" s="7"/>
-    </row>
-    <row r="63" ht="14.25" spans="1:7">
+      <c r="H62" s="7"/>
+    </row>
+    <row r="63" ht="14.25" spans="1:8">
       <c r="A63" s="6">
         <v>300025</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
       <c r="F63" s="8"/>
       <c r="G63" s="7"/>
-    </row>
-    <row r="64" ht="14.25" spans="1:7">
+      <c r="H63" s="7"/>
+    </row>
+    <row r="64" ht="14.25" spans="1:8">
       <c r="A64" s="6">
         <v>300026</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
       <c r="F64" s="8"/>
       <c r="G64" s="7"/>
-    </row>
-    <row r="65" ht="14.25" spans="1:7">
+      <c r="H64" s="7"/>
+    </row>
+    <row r="65" ht="14.25" spans="1:8">
       <c r="A65" s="6">
         <v>300027</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
       <c r="F65" s="8"/>
       <c r="G65" s="7"/>
-    </row>
-    <row r="66" ht="14.25" spans="1:7">
+      <c r="H65" s="7"/>
+    </row>
+    <row r="66" ht="14.25" spans="1:8">
       <c r="A66" s="6">
         <v>300028</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
       <c r="F66" s="8"/>
       <c r="G66" s="7"/>
-    </row>
-    <row r="67" ht="14.25" spans="1:7">
+      <c r="H66" s="7"/>
+    </row>
+    <row r="67" ht="14.25" spans="1:8">
       <c r="A67" s="6">
         <v>300029</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
       <c r="F67" s="8"/>
       <c r="G67" s="7"/>
-    </row>
-    <row r="68" ht="14.25" spans="1:7">
+      <c r="H67" s="7"/>
+    </row>
+    <row r="68" ht="14.25" spans="1:8">
       <c r="A68" s="6">
         <v>300030</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
       <c r="F68" s="8"/>
       <c r="G68" s="7"/>
-    </row>
-    <row r="69" ht="14.25" spans="1:7">
+      <c r="H68" s="7"/>
+    </row>
+    <row r="69" ht="14.25" spans="1:8">
       <c r="A69" s="6">
         <v>300031</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
       <c r="F69" s="8"/>
       <c r="G69" s="7"/>
-    </row>
-    <row r="70" ht="14.25" spans="1:7">
+      <c r="H69" s="7"/>
+    </row>
+    <row r="70" ht="14.25" spans="1:8">
       <c r="A70" s="6">
         <v>300032</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
       <c r="F70" s="8"/>
       <c r="G70" s="7"/>
-    </row>
-    <row r="71" ht="14.25" spans="1:7">
+      <c r="H70" s="7"/>
+    </row>
+    <row r="71" ht="14.25" spans="1:8">
       <c r="A71" s="6">
         <v>300033</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
       <c r="F71" s="8"/>
       <c r="G71" s="7"/>
-    </row>
-    <row r="72" ht="14.25" spans="1:7">
+      <c r="H71" s="7"/>
+    </row>
+    <row r="72" ht="14.25" spans="1:8">
       <c r="A72" s="6">
         <v>300034</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
       <c r="F72" s="8"/>
       <c r="G72" s="7"/>
-    </row>
-    <row r="73" ht="14.25" spans="1:7">
+      <c r="H72" s="7"/>
+    </row>
+    <row r="73" ht="14.25" spans="1:8">
       <c r="A73" s="6">
         <v>300035</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
       <c r="F73" s="8"/>
       <c r="G73" s="7"/>
-    </row>
-    <row r="74" ht="14.25" spans="1:7">
+      <c r="H73" s="7"/>
+    </row>
+    <row r="74" ht="14.25" spans="1:8">
       <c r="A74" s="6">
         <v>300036</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
       <c r="F74" s="8"/>
       <c r="G74" s="7"/>
-    </row>
-    <row r="75" ht="14.25" spans="1:7">
+      <c r="H74" s="7"/>
+    </row>
+    <row r="75" ht="14.25" spans="1:8">
       <c r="A75" s="6">
         <v>300037</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
       <c r="F75" s="8"/>
       <c r="G75" s="7"/>
-    </row>
-    <row r="76" ht="14.25" spans="1:7">
+      <c r="H75" s="7"/>
+    </row>
+    <row r="76" ht="14.25" spans="1:8">
       <c r="A76" s="6">
         <v>300038</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
       <c r="F76" s="8"/>
       <c r="G76" s="7"/>
-    </row>
-    <row r="77" ht="14.25" spans="1:7">
+      <c r="H76" s="7"/>
+    </row>
+    <row r="77" ht="14.25" spans="1:8">
       <c r="A77" s="6">
         <v>300039</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
       <c r="F77" s="8"/>
       <c r="G77" s="7"/>
-    </row>
-    <row r="78" ht="14.25" spans="1:7">
+      <c r="H77" s="7"/>
+    </row>
+    <row r="78" ht="14.25" spans="1:8">
       <c r="A78" s="6">
         <v>300040</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
       <c r="F78" s="8"/>
       <c r="G78" s="7"/>
-    </row>
-    <row r="79" ht="14.25" spans="1:7">
+      <c r="H78" s="7"/>
+    </row>
+    <row r="79" ht="14.25" spans="1:8">
       <c r="A79" s="6">
         <v>300041</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
       <c r="F79" s="8"/>
       <c r="G79" s="7"/>
-    </row>
-    <row r="80" ht="14.25" spans="1:7">
+      <c r="H79" s="7"/>
+    </row>
+    <row r="80" ht="14.25" spans="1:8">
       <c r="A80" s="6">
         <v>300042</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
       <c r="F80" s="8"/>
       <c r="G80" s="7"/>
-    </row>
-    <row r="81" ht="14.25" spans="1:7">
+      <c r="H80" s="7"/>
+    </row>
+    <row r="81" ht="14.25" spans="1:8">
       <c r="A81" s="6">
         <v>300043</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
       <c r="F81" s="8"/>
       <c r="G81" s="7"/>
-    </row>
-    <row r="82" ht="14.25" spans="1:7">
+      <c r="H81" s="7"/>
+    </row>
+    <row r="82" ht="14.25" spans="1:8">
       <c r="A82" s="6">
         <v>300044</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
       <c r="F82" s="8"/>
       <c r="G82" s="7"/>
-    </row>
-    <row r="83" ht="14.25" spans="1:7">
+      <c r="H82" s="7"/>
+    </row>
+    <row r="83" ht="14.25" spans="1:8">
       <c r="A83" s="6">
         <v>300045</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
       <c r="F83" s="8"/>
       <c r="G83" s="7"/>
-    </row>
-    <row r="84" ht="14.25" spans="1:7">
+      <c r="H83" s="7"/>
+    </row>
+    <row r="84" ht="14.25" spans="1:8">
       <c r="A84" s="6">
         <v>300046</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
       <c r="F84" s="8"/>
       <c r="G84" s="7"/>
-    </row>
-    <row r="85" ht="14.25" spans="1:7">
+      <c r="H84" s="7"/>
+    </row>
+    <row r="85" ht="14.25" spans="1:8">
       <c r="A85" s="6">
         <v>300047</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
       <c r="F85" s="8"/>
       <c r="G85" s="7"/>
-    </row>
-    <row r="86" ht="14.25" spans="1:7">
+      <c r="H85" s="7"/>
+    </row>
+    <row r="86" ht="14.25" spans="1:8">
       <c r="A86" s="6">
         <v>300048</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
       <c r="F86" s="8"/>
       <c r="G86" s="7"/>
-    </row>
-    <row r="87" ht="14.25" spans="1:7">
+      <c r="H86" s="7"/>
+    </row>
+    <row r="87" ht="14.25" spans="1:8">
       <c r="A87" s="6">
         <v>300049</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
       <c r="F87" s="8"/>
       <c r="G87" s="7"/>
-    </row>
-    <row r="88" ht="14.25" spans="1:7">
+      <c r="H87" s="7"/>
+    </row>
+    <row r="88" ht="14.25" spans="1:8">
       <c r="A88" s="6">
         <v>300050</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
       <c r="F88" s="8"/>
       <c r="G88" s="7"/>
-    </row>
-    <row r="89" ht="14.25" spans="1:7">
+      <c r="H88" s="7"/>
+    </row>
+    <row r="89" ht="14.25" spans="1:8">
       <c r="A89" s="6">
         <v>300051</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
       <c r="F89" s="8"/>
       <c r="G89" s="7"/>
-    </row>
-    <row r="90" ht="14.25" spans="1:7">
+      <c r="H89" s="7"/>
+    </row>
+    <row r="90" ht="14.25" spans="1:8">
       <c r="A90" s="6">
         <v>300052</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
       <c r="F90" s="8"/>
       <c r="G90" s="7"/>
-    </row>
-    <row r="91" ht="14.25" spans="1:7">
+      <c r="H90" s="7"/>
+    </row>
+    <row r="91" ht="14.25" spans="1:8">
       <c r="A91" s="6">
         <v>300053</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
       <c r="F91" s="8"/>
       <c r="G91" s="7"/>
-    </row>
-    <row r="92" ht="14.25" spans="1:7">
+      <c r="H91" s="7"/>
+    </row>
+    <row r="92" ht="14.25" spans="1:8">
       <c r="A92" s="6">
         <v>300054</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
       <c r="F92" s="8"/>
       <c r="G92" s="7"/>
-    </row>
-    <row r="93" ht="14.25" spans="1:7">
+      <c r="H92" s="7"/>
+    </row>
+    <row r="93" ht="14.25" spans="1:8">
       <c r="A93" s="6">
         <v>300055</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
       <c r="F93" s="8"/>
       <c r="G93" s="7"/>
-    </row>
-    <row r="94" ht="14.25" spans="1:7">
+      <c r="H93" s="7"/>
+    </row>
+    <row r="94" ht="14.25" spans="1:8">
       <c r="A94" s="6">
         <v>300056</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
       <c r="F94" s="8"/>
       <c r="G94" s="7"/>
-    </row>
-    <row r="95" ht="14.25" spans="1:7">
+      <c r="H94" s="7"/>
+    </row>
+    <row r="95" ht="14.25" spans="1:8">
       <c r="A95" s="6">
         <v>300057</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
       <c r="F95" s="8"/>
       <c r="G95" s="7"/>
-    </row>
-    <row r="96" ht="14.25" spans="1:7">
+      <c r="H95" s="7"/>
+    </row>
+    <row r="96" ht="14.25" spans="1:8">
       <c r="A96" s="6">
         <v>300058</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
       <c r="F96" s="8"/>
       <c r="G96" s="7"/>
-    </row>
-    <row r="97" ht="14.25" spans="1:7">
+      <c r="H96" s="7"/>
+    </row>
+    <row r="97" ht="14.25" spans="1:8">
       <c r="A97" s="6">
         <v>300059</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
       <c r="F97" s="8"/>
       <c r="G97" s="7"/>
-    </row>
-    <row r="98" ht="14.25" spans="1:7">
+      <c r="H97" s="7"/>
+    </row>
+    <row r="98" ht="14.25" spans="1:8">
       <c r="A98" s="6">
         <v>600001</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
       <c r="F98" s="8"/>
       <c r="G98" s="7"/>
-    </row>
-    <row r="99" ht="14.25" spans="1:7">
+      <c r="H98" s="7"/>
+    </row>
+    <row r="99" ht="14.25" spans="1:8">
       <c r="A99" s="6">
         <v>600002</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
       <c r="F99" s="8"/>
       <c r="G99" s="7"/>
-    </row>
-    <row r="100" ht="14.25" spans="1:7">
+      <c r="H99" s="7"/>
+    </row>
+    <row r="100" ht="14.25" spans="1:8">
       <c r="A100" s="6">
         <v>600003</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
       <c r="F100" s="8"/>
       <c r="G100" s="7"/>
-    </row>
-    <row r="101" ht="14.25" spans="1:7">
+      <c r="H100" s="7"/>
+    </row>
+    <row r="101" ht="14.25" spans="1:8">
       <c r="A101" s="6">
         <v>600004</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
       <c r="F101" s="8"/>
       <c r="G101" s="7"/>
-    </row>
-    <row r="102" ht="14.25" spans="1:7">
+      <c r="H101" s="7"/>
+    </row>
+    <row r="102" ht="14.25" spans="1:8">
       <c r="A102" s="6">
         <v>600005</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D102" s="7"/>
       <c r="E102" s="7"/>
       <c r="F102" s="8"/>
       <c r="G102" s="7"/>
-    </row>
-    <row r="103" ht="14.25" spans="1:7">
+      <c r="H102" s="7"/>
+    </row>
+    <row r="103" ht="14.25" spans="1:8">
       <c r="A103" s="6">
         <v>700001</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
@@ -3522,16 +3669,17 @@
         <v>0</v>
       </c>
       <c r="G103" s="7"/>
-    </row>
-    <row r="104" ht="14.25" spans="1:7">
+      <c r="H103" s="7"/>
+    </row>
+    <row r="104" ht="14.25" spans="1:8">
       <c r="A104" s="6">
         <v>700002</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
@@ -3539,16 +3687,17 @@
         <v>0</v>
       </c>
       <c r="G104" s="7"/>
-    </row>
-    <row r="105" ht="14.25" spans="1:7">
+      <c r="H104" s="7"/>
+    </row>
+    <row r="105" ht="14.25" spans="1:8">
       <c r="A105" s="6">
         <v>700003</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D105" s="7"/>
       <c r="E105" s="7"/>
@@ -3556,6 +3705,7 @@
         <v>0</v>
       </c>
       <c r="G105" s="7"/>
+      <c r="H105" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gfconf/conf/item.xlsx
+++ b/gfconf/conf/item.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228">
   <si>
     <t>编号</t>
   </si>
@@ -415,6 +415,12 @@
     <t>联赛奖杯</t>
   </si>
   <si>
+    <t>myFriends</t>
+  </si>
+  <si>
+    <t>我的好友</t>
+  </si>
+  <si>
     <t>mainBase</t>
   </si>
   <si>
@@ -887,10 +893,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -920,6 +926,60 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -935,30 +995,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -973,48 +1033,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1034,26 +1056,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1079,19 +1085,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1103,7 +1151,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1115,121 +1205,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1253,7 +1229,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1295,6 +1301,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1310,10 +1334,27 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1330,26 +1371,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1377,21 +1398,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1400,10 +1406,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1412,133 +1418,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1917,12 +1923,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H105"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2449,7 +2455,7 @@
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" ht="14.25" spans="1:8">
+    <row r="31" customFormat="1" ht="14.25" spans="1:8">
       <c r="A31" s="6">
         <v>100033</v>
       </c>
@@ -2469,7 +2475,7 @@
     </row>
     <row r="32" ht="14.25" spans="1:8">
       <c r="A32" s="6">
-        <v>200001</v>
+        <v>100034</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>76</v>
@@ -2479,33 +2485,33 @@
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="7" t="s">
-        <v>78</v>
-      </c>
+      <c r="F32" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G32" s="7"/>
       <c r="H32" s="7"/>
     </row>
     <row r="33" ht="14.25" spans="1:8">
       <c r="A33" s="6">
-        <v>200002</v>
+        <v>200001</v>
       </c>
       <c r="B33" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="8"/>
       <c r="G33" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H33" s="7"/>
     </row>
     <row r="34" ht="14.25" spans="1:8">
       <c r="A34" s="6">
-        <v>200003</v>
+        <v>200002</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>81</v>
@@ -2517,13 +2523,13 @@
       <c r="E34" s="7"/>
       <c r="F34" s="8"/>
       <c r="G34" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H34" s="7"/>
     </row>
     <row r="35" ht="14.25" spans="1:8">
       <c r="A35" s="6">
-        <v>200004</v>
+        <v>200003</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>83</v>
@@ -2535,13 +2541,13 @@
       <c r="E35" s="7"/>
       <c r="F35" s="8"/>
       <c r="G35" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H35" s="7"/>
     </row>
     <row r="36" ht="14.25" spans="1:8">
       <c r="A36" s="6">
-        <v>200005</v>
+        <v>200004</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>85</v>
@@ -2553,13 +2559,13 @@
       <c r="E36" s="7"/>
       <c r="F36" s="8"/>
       <c r="G36" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H36" s="7"/>
     </row>
     <row r="37" ht="14.25" spans="1:8">
       <c r="A37" s="6">
-        <v>200006</v>
+        <v>200005</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>87</v>
@@ -2571,13 +2577,13 @@
       <c r="E37" s="7"/>
       <c r="F37" s="8"/>
       <c r="G37" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H37" s="7"/>
     </row>
     <row r="38" ht="14.25" spans="1:8">
       <c r="A38" s="6">
-        <v>200007</v>
+        <v>200006</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>89</v>
@@ -2589,13 +2595,13 @@
       <c r="E38" s="7"/>
       <c r="F38" s="8"/>
       <c r="G38" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H38" s="7"/>
     </row>
     <row r="39" ht="14.25" spans="1:8">
       <c r="A39" s="6">
-        <v>300001</v>
+        <v>200007</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>91</v>
@@ -2607,13 +2613,13 @@
       <c r="E39" s="7"/>
       <c r="F39" s="8"/>
       <c r="G39" s="7" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="H39" s="7"/>
     </row>
     <row r="40" ht="14.25" spans="1:8">
       <c r="A40" s="6">
-        <v>300002</v>
+        <v>300001</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>93</v>
@@ -2631,7 +2637,7 @@
     </row>
     <row r="41" ht="14.25" spans="1:8">
       <c r="A41" s="6">
-        <v>300003</v>
+        <v>300002</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>95</v>
@@ -2649,7 +2655,7 @@
     </row>
     <row r="42" ht="14.25" spans="1:8">
       <c r="A42" s="6">
-        <v>300004</v>
+        <v>300003</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>97</v>
@@ -2667,7 +2673,7 @@
     </row>
     <row r="43" ht="14.25" spans="1:8">
       <c r="A43" s="6">
-        <v>300005</v>
+        <v>300004</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>99</v>
@@ -2685,7 +2691,7 @@
     </row>
     <row r="44" ht="14.25" spans="1:8">
       <c r="A44" s="6">
-        <v>300006</v>
+        <v>300005</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>101</v>
@@ -2703,7 +2709,7 @@
     </row>
     <row r="45" ht="14.25" spans="1:8">
       <c r="A45" s="6">
-        <v>300007</v>
+        <v>300006</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>103</v>
@@ -2721,7 +2727,7 @@
     </row>
     <row r="46" ht="14.25" spans="1:8">
       <c r="A46" s="6">
-        <v>300008</v>
+        <v>300007</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>105</v>
@@ -2739,7 +2745,7 @@
     </row>
     <row r="47" ht="14.25" spans="1:8">
       <c r="A47" s="6">
-        <v>300009</v>
+        <v>300008</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>107</v>
@@ -2751,31 +2757,31 @@
       <c r="E47" s="7"/>
       <c r="F47" s="8"/>
       <c r="G47" s="7" t="s">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="H47" s="7"/>
     </row>
     <row r="48" ht="14.25" spans="1:8">
       <c r="A48" s="6">
-        <v>300010</v>
+        <v>300009</v>
       </c>
       <c r="B48" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="8"/>
       <c r="G48" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H48" s="7"/>
     </row>
     <row r="49" ht="14.25" spans="1:8">
       <c r="A49" s="6">
-        <v>300011</v>
+        <v>300010</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>112</v>
@@ -2787,13 +2793,13 @@
       <c r="E49" s="7"/>
       <c r="F49" s="8"/>
       <c r="G49" s="7" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="H49" s="7"/>
     </row>
     <row r="50" ht="14.25" spans="1:8">
       <c r="A50" s="6">
-        <v>300012</v>
+        <v>300011</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>114</v>
@@ -2805,13 +2811,13 @@
       <c r="E50" s="7"/>
       <c r="F50" s="8"/>
       <c r="G50" s="7" t="s">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="H50" s="7"/>
     </row>
     <row r="51" ht="14.25" spans="1:8">
       <c r="A51" s="6">
-        <v>300013</v>
+        <v>300012</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>116</v>
@@ -2823,13 +2829,13 @@
       <c r="E51" s="7"/>
       <c r="F51" s="8"/>
       <c r="G51" s="7" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="H51" s="7"/>
     </row>
     <row r="52" ht="14.25" spans="1:8">
       <c r="A52" s="6">
-        <v>300014</v>
+        <v>300013</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>118</v>
@@ -2847,7 +2853,7 @@
     </row>
     <row r="53" ht="14.25" spans="1:8">
       <c r="A53" s="6">
-        <v>300015</v>
+        <v>300014</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>120</v>
@@ -2865,7 +2871,7 @@
     </row>
     <row r="54" ht="14.25" spans="1:8">
       <c r="A54" s="6">
-        <v>300016</v>
+        <v>300015</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>122</v>
@@ -2877,13 +2883,13 @@
       <c r="E54" s="7"/>
       <c r="F54" s="8"/>
       <c r="G54" s="7" t="s">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="H54" s="7"/>
     </row>
     <row r="55" ht="14.25" spans="1:8">
       <c r="A55" s="6">
-        <v>300017</v>
+        <v>300016</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>124</v>
@@ -2895,13 +2901,13 @@
       <c r="E55" s="7"/>
       <c r="F55" s="8"/>
       <c r="G55" s="7" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="H55" s="7"/>
     </row>
     <row r="56" ht="14.25" spans="1:8">
       <c r="A56" s="6">
-        <v>300018</v>
+        <v>300017</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>126</v>
@@ -2913,13 +2919,13 @@
       <c r="E56" s="7"/>
       <c r="F56" s="8"/>
       <c r="G56" s="7" t="s">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="H56" s="7"/>
     </row>
     <row r="57" ht="14.25" spans="1:8">
       <c r="A57" s="6">
-        <v>300019</v>
+        <v>300018</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>128</v>
@@ -2930,12 +2936,14 @@
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
       <c r="F57" s="8"/>
-      <c r="G57" s="7"/>
+      <c r="G57" s="7" t="s">
+        <v>111</v>
+      </c>
       <c r="H57" s="7"/>
     </row>
     <row r="58" ht="14.25" spans="1:8">
       <c r="A58" s="6">
-        <v>300020</v>
+        <v>300019</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>130</v>
@@ -2951,7 +2959,7 @@
     </row>
     <row r="59" ht="14.25" spans="1:8">
       <c r="A59" s="6">
-        <v>300021</v>
+        <v>300020</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>132</v>
@@ -2967,7 +2975,7 @@
     </row>
     <row r="60" ht="14.25" spans="1:8">
       <c r="A60" s="6">
-        <v>300022</v>
+        <v>300021</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>134</v>
@@ -2983,7 +2991,7 @@
     </row>
     <row r="61" ht="14.25" spans="1:8">
       <c r="A61" s="6">
-        <v>300023</v>
+        <v>300022</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>136</v>
@@ -2999,7 +3007,7 @@
     </row>
     <row r="62" ht="14.25" spans="1:8">
       <c r="A62" s="6">
-        <v>300024</v>
+        <v>300023</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>138</v>
@@ -3015,7 +3023,7 @@
     </row>
     <row r="63" ht="14.25" spans="1:8">
       <c r="A63" s="6">
-        <v>300025</v>
+        <v>300024</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>140</v>
@@ -3031,7 +3039,7 @@
     </row>
     <row r="64" ht="14.25" spans="1:8">
       <c r="A64" s="6">
-        <v>300026</v>
+        <v>300025</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>142</v>
@@ -3047,7 +3055,7 @@
     </row>
     <row r="65" ht="14.25" spans="1:8">
       <c r="A65" s="6">
-        <v>300027</v>
+        <v>300026</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>144</v>
@@ -3063,7 +3071,7 @@
     </row>
     <row r="66" ht="14.25" spans="1:8">
       <c r="A66" s="6">
-        <v>300028</v>
+        <v>300027</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>146</v>
@@ -3079,7 +3087,7 @@
     </row>
     <row r="67" ht="14.25" spans="1:8">
       <c r="A67" s="6">
-        <v>300029</v>
+        <v>300028</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>148</v>
@@ -3095,7 +3103,7 @@
     </row>
     <row r="68" ht="14.25" spans="1:8">
       <c r="A68" s="6">
-        <v>300030</v>
+        <v>300029</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>150</v>
@@ -3111,7 +3119,7 @@
     </row>
     <row r="69" ht="14.25" spans="1:8">
       <c r="A69" s="6">
-        <v>300031</v>
+        <v>300030</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>152</v>
@@ -3127,7 +3135,7 @@
     </row>
     <row r="70" ht="14.25" spans="1:8">
       <c r="A70" s="6">
-        <v>300032</v>
+        <v>300031</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>154</v>
@@ -3143,7 +3151,7 @@
     </row>
     <row r="71" ht="14.25" spans="1:8">
       <c r="A71" s="6">
-        <v>300033</v>
+        <v>300032</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>156</v>
@@ -3159,7 +3167,7 @@
     </row>
     <row r="72" ht="14.25" spans="1:8">
       <c r="A72" s="6">
-        <v>300034</v>
+        <v>300033</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>158</v>
@@ -3175,7 +3183,7 @@
     </row>
     <row r="73" ht="14.25" spans="1:8">
       <c r="A73" s="6">
-        <v>300035</v>
+        <v>300034</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>160</v>
@@ -3191,7 +3199,7 @@
     </row>
     <row r="74" ht="14.25" spans="1:8">
       <c r="A74" s="6">
-        <v>300036</v>
+        <v>300035</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>162</v>
@@ -3207,7 +3215,7 @@
     </row>
     <row r="75" ht="14.25" spans="1:8">
       <c r="A75" s="6">
-        <v>300037</v>
+        <v>300036</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>164</v>
@@ -3223,7 +3231,7 @@
     </row>
     <row r="76" ht="14.25" spans="1:8">
       <c r="A76" s="6">
-        <v>300038</v>
+        <v>300037</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>166</v>
@@ -3239,7 +3247,7 @@
     </row>
     <row r="77" ht="14.25" spans="1:8">
       <c r="A77" s="6">
-        <v>300039</v>
+        <v>300038</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>168</v>
@@ -3255,7 +3263,7 @@
     </row>
     <row r="78" ht="14.25" spans="1:8">
       <c r="A78" s="6">
-        <v>300040</v>
+        <v>300039</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>170</v>
@@ -3271,7 +3279,7 @@
     </row>
     <row r="79" ht="14.25" spans="1:8">
       <c r="A79" s="6">
-        <v>300041</v>
+        <v>300040</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>172</v>
@@ -3287,7 +3295,7 @@
     </row>
     <row r="80" ht="14.25" spans="1:8">
       <c r="A80" s="6">
-        <v>300042</v>
+        <v>300041</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>174</v>
@@ -3303,7 +3311,7 @@
     </row>
     <row r="81" ht="14.25" spans="1:8">
       <c r="A81" s="6">
-        <v>300043</v>
+        <v>300042</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>176</v>
@@ -3319,7 +3327,7 @@
     </row>
     <row r="82" ht="14.25" spans="1:8">
       <c r="A82" s="6">
-        <v>300044</v>
+        <v>300043</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>178</v>
@@ -3335,7 +3343,7 @@
     </row>
     <row r="83" ht="14.25" spans="1:8">
       <c r="A83" s="6">
-        <v>300045</v>
+        <v>300044</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>180</v>
@@ -3351,7 +3359,7 @@
     </row>
     <row r="84" ht="14.25" spans="1:8">
       <c r="A84" s="6">
-        <v>300046</v>
+        <v>300045</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>182</v>
@@ -3367,7 +3375,7 @@
     </row>
     <row r="85" ht="14.25" spans="1:8">
       <c r="A85" s="6">
-        <v>300047</v>
+        <v>300046</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>184</v>
@@ -3383,7 +3391,7 @@
     </row>
     <row r="86" ht="14.25" spans="1:8">
       <c r="A86" s="6">
-        <v>300048</v>
+        <v>300047</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>186</v>
@@ -3399,7 +3407,7 @@
     </row>
     <row r="87" ht="14.25" spans="1:8">
       <c r="A87" s="6">
-        <v>300049</v>
+        <v>300048</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>188</v>
@@ -3415,7 +3423,7 @@
     </row>
     <row r="88" ht="14.25" spans="1:8">
       <c r="A88" s="6">
-        <v>300050</v>
+        <v>300049</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>190</v>
@@ -3431,7 +3439,7 @@
     </row>
     <row r="89" ht="14.25" spans="1:8">
       <c r="A89" s="6">
-        <v>300051</v>
+        <v>300050</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>192</v>
@@ -3447,7 +3455,7 @@
     </row>
     <row r="90" ht="14.25" spans="1:8">
       <c r="A90" s="6">
-        <v>300052</v>
+        <v>300051</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>194</v>
@@ -3463,7 +3471,7 @@
     </row>
     <row r="91" ht="14.25" spans="1:8">
       <c r="A91" s="6">
-        <v>300053</v>
+        <v>300052</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>196</v>
@@ -3479,7 +3487,7 @@
     </row>
     <row r="92" ht="14.25" spans="1:8">
       <c r="A92" s="6">
-        <v>300054</v>
+        <v>300053</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>198</v>
@@ -3495,7 +3503,7 @@
     </row>
     <row r="93" ht="14.25" spans="1:8">
       <c r="A93" s="6">
-        <v>300055</v>
+        <v>300054</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>200</v>
@@ -3511,7 +3519,7 @@
     </row>
     <row r="94" ht="14.25" spans="1:8">
       <c r="A94" s="6">
-        <v>300056</v>
+        <v>300055</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>202</v>
@@ -3527,7 +3535,7 @@
     </row>
     <row r="95" ht="14.25" spans="1:8">
       <c r="A95" s="6">
-        <v>300057</v>
+        <v>300056</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>204</v>
@@ -3543,7 +3551,7 @@
     </row>
     <row r="96" ht="14.25" spans="1:8">
       <c r="A96" s="6">
-        <v>300058</v>
+        <v>300057</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>206</v>
@@ -3559,7 +3567,7 @@
     </row>
     <row r="97" ht="14.25" spans="1:8">
       <c r="A97" s="6">
-        <v>300059</v>
+        <v>300058</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>208</v>
@@ -3575,7 +3583,7 @@
     </row>
     <row r="98" ht="14.25" spans="1:8">
       <c r="A98" s="6">
-        <v>600001</v>
+        <v>300059</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>210</v>
@@ -3591,7 +3599,7 @@
     </row>
     <row r="99" ht="14.25" spans="1:8">
       <c r="A99" s="6">
-        <v>600002</v>
+        <v>600001</v>
       </c>
       <c r="B99" s="7" t="s">
         <v>212</v>
@@ -3607,7 +3615,7 @@
     </row>
     <row r="100" ht="14.25" spans="1:8">
       <c r="A100" s="6">
-        <v>600003</v>
+        <v>600002</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>214</v>
@@ -3623,7 +3631,7 @@
     </row>
     <row r="101" ht="14.25" spans="1:8">
       <c r="A101" s="6">
-        <v>600004</v>
+        <v>600003</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>216</v>
@@ -3639,7 +3647,7 @@
     </row>
     <row r="102" ht="14.25" spans="1:8">
       <c r="A102" s="6">
-        <v>600005</v>
+        <v>600004</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>218</v>
@@ -3655,7 +3663,7 @@
     </row>
     <row r="103" ht="14.25" spans="1:8">
       <c r="A103" s="6">
-        <v>700001</v>
+        <v>600005</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>220</v>
@@ -3665,15 +3673,13 @@
       </c>
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
-      <c r="F103" s="6">
-        <v>0</v>
-      </c>
+      <c r="F103" s="8"/>
       <c r="G103" s="7"/>
       <c r="H103" s="7"/>
     </row>
     <row r="104" ht="14.25" spans="1:8">
       <c r="A104" s="6">
-        <v>700002</v>
+        <v>700001</v>
       </c>
       <c r="B104" s="7" t="s">
         <v>222</v>
@@ -3691,7 +3697,7 @@
     </row>
     <row r="105" ht="14.25" spans="1:8">
       <c r="A105" s="6">
-        <v>700003</v>
+        <v>700002</v>
       </c>
       <c r="B105" s="7" t="s">
         <v>224</v>
@@ -3706,6 +3712,24 @@
       </c>
       <c r="G105" s="7"/>
       <c r="H105" s="7"/>
+    </row>
+    <row r="106" ht="14.25" spans="1:8">
+      <c r="A106" s="6">
+        <v>700003</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="6">
+        <v>0</v>
+      </c>
+      <c r="G106" s="7"/>
+      <c r="H106" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gfconf/conf/item.xlsx
+++ b/gfconf/conf/item.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230">
   <si>
     <t>编号</t>
   </si>
@@ -419,6 +419,12 @@
   </si>
   <si>
     <t>我的好友</t>
+  </si>
+  <si>
+    <t>applyToBeFriendList</t>
+  </si>
+  <si>
+    <t>申请好友列表</t>
   </si>
   <si>
     <t>mainBase</t>
@@ -1923,12 +1929,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H106"/>
+  <dimension ref="A1:H107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
+      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2473,7 +2479,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" ht="14.25" spans="1:8">
+    <row r="32" customFormat="1" ht="14.25" spans="1:8">
       <c r="A32" s="6">
         <v>100034</v>
       </c>
@@ -2493,7 +2499,7 @@
     </row>
     <row r="33" ht="14.25" spans="1:8">
       <c r="A33" s="6">
-        <v>200001</v>
+        <v>100035</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>78</v>
@@ -2503,33 +2509,33 @@
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="7" t="s">
-        <v>80</v>
-      </c>
+      <c r="F33" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G33" s="7"/>
       <c r="H33" s="7"/>
     </row>
     <row r="34" ht="14.25" spans="1:8">
       <c r="A34" s="6">
-        <v>200002</v>
+        <v>200001</v>
       </c>
       <c r="B34" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="8"/>
       <c r="G34" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H34" s="7"/>
     </row>
     <row r="35" ht="14.25" spans="1:8">
       <c r="A35" s="6">
-        <v>200003</v>
+        <v>200002</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>83</v>
@@ -2541,13 +2547,13 @@
       <c r="E35" s="7"/>
       <c r="F35" s="8"/>
       <c r="G35" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H35" s="7"/>
     </row>
     <row r="36" ht="14.25" spans="1:8">
       <c r="A36" s="6">
-        <v>200004</v>
+        <v>200003</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>85</v>
@@ -2559,13 +2565,13 @@
       <c r="E36" s="7"/>
       <c r="F36" s="8"/>
       <c r="G36" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H36" s="7"/>
     </row>
     <row r="37" ht="14.25" spans="1:8">
       <c r="A37" s="6">
-        <v>200005</v>
+        <v>200004</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>87</v>
@@ -2577,13 +2583,13 @@
       <c r="E37" s="7"/>
       <c r="F37" s="8"/>
       <c r="G37" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H37" s="7"/>
     </row>
     <row r="38" ht="14.25" spans="1:8">
       <c r="A38" s="6">
-        <v>200006</v>
+        <v>200005</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>89</v>
@@ -2595,13 +2601,13 @@
       <c r="E38" s="7"/>
       <c r="F38" s="8"/>
       <c r="G38" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H38" s="7"/>
     </row>
     <row r="39" ht="14.25" spans="1:8">
       <c r="A39" s="6">
-        <v>200007</v>
+        <v>200006</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>91</v>
@@ -2613,13 +2619,13 @@
       <c r="E39" s="7"/>
       <c r="F39" s="8"/>
       <c r="G39" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H39" s="7"/>
     </row>
     <row r="40" ht="14.25" spans="1:8">
       <c r="A40" s="6">
-        <v>300001</v>
+        <v>200007</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>93</v>
@@ -2631,13 +2637,13 @@
       <c r="E40" s="7"/>
       <c r="F40" s="8"/>
       <c r="G40" s="7" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="H40" s="7"/>
     </row>
     <row r="41" ht="14.25" spans="1:8">
       <c r="A41" s="6">
-        <v>300002</v>
+        <v>300001</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>95</v>
@@ -2655,7 +2661,7 @@
     </row>
     <row r="42" ht="14.25" spans="1:8">
       <c r="A42" s="6">
-        <v>300003</v>
+        <v>300002</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>97</v>
@@ -2673,7 +2679,7 @@
     </row>
     <row r="43" ht="14.25" spans="1:8">
       <c r="A43" s="6">
-        <v>300004</v>
+        <v>300003</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>99</v>
@@ -2691,7 +2697,7 @@
     </row>
     <row r="44" ht="14.25" spans="1:8">
       <c r="A44" s="6">
-        <v>300005</v>
+        <v>300004</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>101</v>
@@ -2709,7 +2715,7 @@
     </row>
     <row r="45" ht="14.25" spans="1:8">
       <c r="A45" s="6">
-        <v>300006</v>
+        <v>300005</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>103</v>
@@ -2727,7 +2733,7 @@
     </row>
     <row r="46" ht="14.25" spans="1:8">
       <c r="A46" s="6">
-        <v>300007</v>
+        <v>300006</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>105</v>
@@ -2745,7 +2751,7 @@
     </row>
     <row r="47" ht="14.25" spans="1:8">
       <c r="A47" s="6">
-        <v>300008</v>
+        <v>300007</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>107</v>
@@ -2763,7 +2769,7 @@
     </row>
     <row r="48" ht="14.25" spans="1:8">
       <c r="A48" s="6">
-        <v>300009</v>
+        <v>300008</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>109</v>
@@ -2775,31 +2781,31 @@
       <c r="E48" s="7"/>
       <c r="F48" s="8"/>
       <c r="G48" s="7" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="H48" s="7"/>
     </row>
     <row r="49" ht="14.25" spans="1:8">
       <c r="A49" s="6">
-        <v>300010</v>
+        <v>300009</v>
       </c>
       <c r="B49" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="8"/>
       <c r="G49" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H49" s="7"/>
     </row>
     <row r="50" ht="14.25" spans="1:8">
       <c r="A50" s="6">
-        <v>300011</v>
+        <v>300010</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>114</v>
@@ -2811,13 +2817,13 @@
       <c r="E50" s="7"/>
       <c r="F50" s="8"/>
       <c r="G50" s="7" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="H50" s="7"/>
     </row>
     <row r="51" ht="14.25" spans="1:8">
       <c r="A51" s="6">
-        <v>300012</v>
+        <v>300011</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>116</v>
@@ -2829,13 +2835,13 @@
       <c r="E51" s="7"/>
       <c r="F51" s="8"/>
       <c r="G51" s="7" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="H51" s="7"/>
     </row>
     <row r="52" ht="14.25" spans="1:8">
       <c r="A52" s="6">
-        <v>300013</v>
+        <v>300012</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>118</v>
@@ -2847,13 +2853,13 @@
       <c r="E52" s="7"/>
       <c r="F52" s="8"/>
       <c r="G52" s="7" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="H52" s="7"/>
     </row>
     <row r="53" ht="14.25" spans="1:8">
       <c r="A53" s="6">
-        <v>300014</v>
+        <v>300013</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>120</v>
@@ -2871,7 +2877,7 @@
     </row>
     <row r="54" ht="14.25" spans="1:8">
       <c r="A54" s="6">
-        <v>300015</v>
+        <v>300014</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>122</v>
@@ -2889,7 +2895,7 @@
     </row>
     <row r="55" ht="14.25" spans="1:8">
       <c r="A55" s="6">
-        <v>300016</v>
+        <v>300015</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>124</v>
@@ -2901,13 +2907,13 @@
       <c r="E55" s="7"/>
       <c r="F55" s="8"/>
       <c r="G55" s="7" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="H55" s="7"/>
     </row>
     <row r="56" ht="14.25" spans="1:8">
       <c r="A56" s="6">
-        <v>300017</v>
+        <v>300016</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>126</v>
@@ -2919,13 +2925,13 @@
       <c r="E56" s="7"/>
       <c r="F56" s="8"/>
       <c r="G56" s="7" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="H56" s="7"/>
     </row>
     <row r="57" ht="14.25" spans="1:8">
       <c r="A57" s="6">
-        <v>300018</v>
+        <v>300017</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>128</v>
@@ -2937,13 +2943,13 @@
       <c r="E57" s="7"/>
       <c r="F57" s="8"/>
       <c r="G57" s="7" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="H57" s="7"/>
     </row>
     <row r="58" ht="14.25" spans="1:8">
       <c r="A58" s="6">
-        <v>300019</v>
+        <v>300018</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>130</v>
@@ -2954,12 +2960,14 @@
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
       <c r="F58" s="8"/>
-      <c r="G58" s="7"/>
+      <c r="G58" s="7" t="s">
+        <v>113</v>
+      </c>
       <c r="H58" s="7"/>
     </row>
     <row r="59" ht="14.25" spans="1:8">
       <c r="A59" s="6">
-        <v>300020</v>
+        <v>300019</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>132</v>
@@ -2975,7 +2983,7 @@
     </row>
     <row r="60" ht="14.25" spans="1:8">
       <c r="A60" s="6">
-        <v>300021</v>
+        <v>300020</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>134</v>
@@ -2991,7 +2999,7 @@
     </row>
     <row r="61" ht="14.25" spans="1:8">
       <c r="A61" s="6">
-        <v>300022</v>
+        <v>300021</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>136</v>
@@ -3007,7 +3015,7 @@
     </row>
     <row r="62" ht="14.25" spans="1:8">
       <c r="A62" s="6">
-        <v>300023</v>
+        <v>300022</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>138</v>
@@ -3023,7 +3031,7 @@
     </row>
     <row r="63" ht="14.25" spans="1:8">
       <c r="A63" s="6">
-        <v>300024</v>
+        <v>300023</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>140</v>
@@ -3039,7 +3047,7 @@
     </row>
     <row r="64" ht="14.25" spans="1:8">
       <c r="A64" s="6">
-        <v>300025</v>
+        <v>300024</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>142</v>
@@ -3055,7 +3063,7 @@
     </row>
     <row r="65" ht="14.25" spans="1:8">
       <c r="A65" s="6">
-        <v>300026</v>
+        <v>300025</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>144</v>
@@ -3071,7 +3079,7 @@
     </row>
     <row r="66" ht="14.25" spans="1:8">
       <c r="A66" s="6">
-        <v>300027</v>
+        <v>300026</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>146</v>
@@ -3087,7 +3095,7 @@
     </row>
     <row r="67" ht="14.25" spans="1:8">
       <c r="A67" s="6">
-        <v>300028</v>
+        <v>300027</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>148</v>
@@ -3103,7 +3111,7 @@
     </row>
     <row r="68" ht="14.25" spans="1:8">
       <c r="A68" s="6">
-        <v>300029</v>
+        <v>300028</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>150</v>
@@ -3119,7 +3127,7 @@
     </row>
     <row r="69" ht="14.25" spans="1:8">
       <c r="A69" s="6">
-        <v>300030</v>
+        <v>300029</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>152</v>
@@ -3135,7 +3143,7 @@
     </row>
     <row r="70" ht="14.25" spans="1:8">
       <c r="A70" s="6">
-        <v>300031</v>
+        <v>300030</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>154</v>
@@ -3151,7 +3159,7 @@
     </row>
     <row r="71" ht="14.25" spans="1:8">
       <c r="A71" s="6">
-        <v>300032</v>
+        <v>300031</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>156</v>
@@ -3167,7 +3175,7 @@
     </row>
     <row r="72" ht="14.25" spans="1:8">
       <c r="A72" s="6">
-        <v>300033</v>
+        <v>300032</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>158</v>
@@ -3183,7 +3191,7 @@
     </row>
     <row r="73" ht="14.25" spans="1:8">
       <c r="A73" s="6">
-        <v>300034</v>
+        <v>300033</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>160</v>
@@ -3199,7 +3207,7 @@
     </row>
     <row r="74" ht="14.25" spans="1:8">
       <c r="A74" s="6">
-        <v>300035</v>
+        <v>300034</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>162</v>
@@ -3215,7 +3223,7 @@
     </row>
     <row r="75" ht="14.25" spans="1:8">
       <c r="A75" s="6">
-        <v>300036</v>
+        <v>300035</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>164</v>
@@ -3231,7 +3239,7 @@
     </row>
     <row r="76" ht="14.25" spans="1:8">
       <c r="A76" s="6">
-        <v>300037</v>
+        <v>300036</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>166</v>
@@ -3247,7 +3255,7 @@
     </row>
     <row r="77" ht="14.25" spans="1:8">
       <c r="A77" s="6">
-        <v>300038</v>
+        <v>300037</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>168</v>
@@ -3263,7 +3271,7 @@
     </row>
     <row r="78" ht="14.25" spans="1:8">
       <c r="A78" s="6">
-        <v>300039</v>
+        <v>300038</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>170</v>
@@ -3279,7 +3287,7 @@
     </row>
     <row r="79" ht="14.25" spans="1:8">
       <c r="A79" s="6">
-        <v>300040</v>
+        <v>300039</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>172</v>
@@ -3295,7 +3303,7 @@
     </row>
     <row r="80" ht="14.25" spans="1:8">
       <c r="A80" s="6">
-        <v>300041</v>
+        <v>300040</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>174</v>
@@ -3311,7 +3319,7 @@
     </row>
     <row r="81" ht="14.25" spans="1:8">
       <c r="A81" s="6">
-        <v>300042</v>
+        <v>300041</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>176</v>
@@ -3327,7 +3335,7 @@
     </row>
     <row r="82" ht="14.25" spans="1:8">
       <c r="A82" s="6">
-        <v>300043</v>
+        <v>300042</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>178</v>
@@ -3343,7 +3351,7 @@
     </row>
     <row r="83" ht="14.25" spans="1:8">
       <c r="A83" s="6">
-        <v>300044</v>
+        <v>300043</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>180</v>
@@ -3359,7 +3367,7 @@
     </row>
     <row r="84" ht="14.25" spans="1:8">
       <c r="A84" s="6">
-        <v>300045</v>
+        <v>300044</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>182</v>
@@ -3375,7 +3383,7 @@
     </row>
     <row r="85" ht="14.25" spans="1:8">
       <c r="A85" s="6">
-        <v>300046</v>
+        <v>300045</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>184</v>
@@ -3391,7 +3399,7 @@
     </row>
     <row r="86" ht="14.25" spans="1:8">
       <c r="A86" s="6">
-        <v>300047</v>
+        <v>300046</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>186</v>
@@ -3407,7 +3415,7 @@
     </row>
     <row r="87" ht="14.25" spans="1:8">
       <c r="A87" s="6">
-        <v>300048</v>
+        <v>300047</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>188</v>
@@ -3423,7 +3431,7 @@
     </row>
     <row r="88" ht="14.25" spans="1:8">
       <c r="A88" s="6">
-        <v>300049</v>
+        <v>300048</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>190</v>
@@ -3439,7 +3447,7 @@
     </row>
     <row r="89" ht="14.25" spans="1:8">
       <c r="A89" s="6">
-        <v>300050</v>
+        <v>300049</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>192</v>
@@ -3455,7 +3463,7 @@
     </row>
     <row r="90" ht="14.25" spans="1:8">
       <c r="A90" s="6">
-        <v>300051</v>
+        <v>300050</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>194</v>
@@ -3471,7 +3479,7 @@
     </row>
     <row r="91" ht="14.25" spans="1:8">
       <c r="A91" s="6">
-        <v>300052</v>
+        <v>300051</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>196</v>
@@ -3487,7 +3495,7 @@
     </row>
     <row r="92" ht="14.25" spans="1:8">
       <c r="A92" s="6">
-        <v>300053</v>
+        <v>300052</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>198</v>
@@ -3503,7 +3511,7 @@
     </row>
     <row r="93" ht="14.25" spans="1:8">
       <c r="A93" s="6">
-        <v>300054</v>
+        <v>300053</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>200</v>
@@ -3519,7 +3527,7 @@
     </row>
     <row r="94" ht="14.25" spans="1:8">
       <c r="A94" s="6">
-        <v>300055</v>
+        <v>300054</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>202</v>
@@ -3535,7 +3543,7 @@
     </row>
     <row r="95" ht="14.25" spans="1:8">
       <c r="A95" s="6">
-        <v>300056</v>
+        <v>300055</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>204</v>
@@ -3551,7 +3559,7 @@
     </row>
     <row r="96" ht="14.25" spans="1:8">
       <c r="A96" s="6">
-        <v>300057</v>
+        <v>300056</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>206</v>
@@ -3567,7 +3575,7 @@
     </row>
     <row r="97" ht="14.25" spans="1:8">
       <c r="A97" s="6">
-        <v>300058</v>
+        <v>300057</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>208</v>
@@ -3583,7 +3591,7 @@
     </row>
     <row r="98" ht="14.25" spans="1:8">
       <c r="A98" s="6">
-        <v>300059</v>
+        <v>300058</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>210</v>
@@ -3599,7 +3607,7 @@
     </row>
     <row r="99" ht="14.25" spans="1:8">
       <c r="A99" s="6">
-        <v>600001</v>
+        <v>300059</v>
       </c>
       <c r="B99" s="7" t="s">
         <v>212</v>
@@ -3615,7 +3623,7 @@
     </row>
     <row r="100" ht="14.25" spans="1:8">
       <c r="A100" s="6">
-        <v>600002</v>
+        <v>600001</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>214</v>
@@ -3631,7 +3639,7 @@
     </row>
     <row r="101" ht="14.25" spans="1:8">
       <c r="A101" s="6">
-        <v>600003</v>
+        <v>600002</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>216</v>
@@ -3647,7 +3655,7 @@
     </row>
     <row r="102" ht="14.25" spans="1:8">
       <c r="A102" s="6">
-        <v>600004</v>
+        <v>600003</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>218</v>
@@ -3663,7 +3671,7 @@
     </row>
     <row r="103" ht="14.25" spans="1:8">
       <c r="A103" s="6">
-        <v>600005</v>
+        <v>600004</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>220</v>
@@ -3679,7 +3687,7 @@
     </row>
     <row r="104" ht="14.25" spans="1:8">
       <c r="A104" s="6">
-        <v>700001</v>
+        <v>600005</v>
       </c>
       <c r="B104" s="7" t="s">
         <v>222</v>
@@ -3689,15 +3697,13 @@
       </c>
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
-      <c r="F104" s="6">
-        <v>0</v>
-      </c>
+      <c r="F104" s="8"/>
       <c r="G104" s="7"/>
       <c r="H104" s="7"/>
     </row>
     <row r="105" ht="14.25" spans="1:8">
       <c r="A105" s="6">
-        <v>700002</v>
+        <v>700001</v>
       </c>
       <c r="B105" s="7" t="s">
         <v>224</v>
@@ -3715,7 +3721,7 @@
     </row>
     <row r="106" ht="14.25" spans="1:8">
       <c r="A106" s="6">
-        <v>700003</v>
+        <v>700002</v>
       </c>
       <c r="B106" s="7" t="s">
         <v>226</v>
@@ -3730,6 +3736,24 @@
       </c>
       <c r="G106" s="7"/>
       <c r="H106" s="7"/>
+    </row>
+    <row r="107" ht="14.25" spans="1:8">
+      <c r="A107" s="6">
+        <v>700003</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="6">
+        <v>0</v>
+      </c>
+      <c r="G107" s="7"/>
+      <c r="H107" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gfconf/conf/item.xlsx
+++ b/gfconf/conf/item.xlsx
@@ -118,24 +118,7 @@
     <t>name</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>avatarI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>d</t>
-    </r>
+    <t>avatarId</t>
   </si>
   <si>
     <r>
@@ -899,10 +882,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -932,6 +915,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -940,23 +930,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -972,7 +954,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -987,28 +1038,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1022,55 +1052,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1091,7 +1074,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1103,13 +1200,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1121,97 +1230,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1223,49 +1248,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1326,6 +1309,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1336,6 +1334,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1366,21 +1379,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1389,21 +1387,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1412,10 +1395,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1424,16 +1407,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1442,115 +1425,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1932,9 +1915,9 @@
   <dimension ref="A1:H107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
